--- a/Proyecto/data/horarioLaboratorios.xlsx
+++ b/Proyecto/data/horarioLaboratorios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Laboratorio</t>
   </si>
@@ -53,85 +53,115 @@
     <t>Viernes</t>
   </si>
   <si>
+    <t>12IE3028</t>
+  </si>
+  <si>
+    <t>12IE2010</t>
+  </si>
+  <si>
+    <t>22IE2010</t>
+  </si>
+  <si>
+    <t>Miguelnose_apellidoapellido2</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoSamayoa</t>
+  </si>
+  <si>
+    <t>22IE2009</t>
+  </si>
+  <si>
+    <t>Profesor4SegundoN_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>21IE3028</t>
+  </si>
+  <si>
+    <t>11IE2009</t>
+  </si>
+  <si>
+    <t>Profesor5segundoN5_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>Receso</t>
+  </si>
+  <si>
+    <t>11IE2011</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apellido1Sepa</t>
+  </si>
+  <si>
+    <t>31IE2009</t>
+  </si>
+  <si>
+    <t>22IE2009, 21IE3028</t>
+  </si>
+  <si>
+    <t>12IE3028, 11IE2011</t>
+  </si>
+  <si>
+    <t>31IE2010, 12IE2011</t>
+  </si>
+  <si>
+    <t>21IE2009</t>
+  </si>
+  <si>
+    <t>21IE2010</t>
+  </si>
+  <si>
+    <t>31IE2010</t>
+  </si>
+  <si>
+    <t>11IE3028</t>
+  </si>
+  <si>
+    <t>11IE2013</t>
+  </si>
+  <si>
+    <t>12IE2009</t>
+  </si>
+  <si>
+    <t>11IE3048</t>
+  </si>
+  <si>
+    <t>32IE2010</t>
+  </si>
+  <si>
+    <t>11IE2010, 12IE2013</t>
+  </si>
+  <si>
+    <t>11IE3048, 12IE2011</t>
+  </si>
+  <si>
+    <t>11IE3028, 11IE2010, 11IE2008</t>
+  </si>
+  <si>
+    <t>11IE2008</t>
+  </si>
+  <si>
+    <t>11IE2010</t>
+  </si>
+  <si>
     <t>11IE3049</t>
   </si>
   <si>
-    <t>11IE3048</t>
-  </si>
-  <si>
-    <t>31IE2009</t>
-  </si>
-  <si>
-    <t>21IE2010</t>
-  </si>
-  <si>
-    <t>Profesor4SegundoN_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>12IE3028</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apellido1Sepa</t>
-  </si>
-  <si>
-    <t>11IE3028</t>
-  </si>
-  <si>
-    <t>11IE2009</t>
-  </si>
-  <si>
-    <t>11IE2008</t>
-  </si>
-  <si>
-    <t>22IE2009</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoSamayoa</t>
-  </si>
-  <si>
-    <t>Receso</t>
-  </si>
-  <si>
-    <t>31IE2010</t>
-  </si>
-  <si>
-    <t>Profesor5segundoN5_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>Miguelnose_apellidoapellido2</t>
-  </si>
-  <si>
-    <t>12IE2009</t>
-  </si>
-  <si>
-    <t>22IE2010</t>
-  </si>
-  <si>
     <t>12IE2011</t>
   </si>
   <si>
-    <t>21IE2009</t>
-  </si>
-  <si>
-    <t>11IE2013</t>
-  </si>
-  <si>
-    <t>12IE2010</t>
-  </si>
-  <si>
-    <t>11IE2010</t>
-  </si>
-  <si>
-    <t>32IE2010</t>
-  </si>
-  <si>
-    <t>11IE2011</t>
-  </si>
-  <si>
-    <t>21IE3028</t>
+    <t>21IE2010, 11IE2013</t>
   </si>
   <si>
     <t>12IE2013</t>
+  </si>
+  <si>
+    <t>11IE2010, 11IE3049</t>
+  </si>
+  <si>
+    <t>11IE2008, 12IE2009</t>
+  </si>
+  <si>
+    <t>21IE2009, 32IE2010</t>
   </si>
 </sst>
 </file>
@@ -139,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -172,8 +202,11 @@
       <color theme="1"/>
       <sz val="9"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -204,6 +237,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -232,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,6 +328,27 @@
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,25 +736,23 @@
       <c s="14" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="15" r="D5" t="s">
+      <c s="21" r="D5" t="s"/>
+      <c s="21" r="E5" t="s"/>
+      <c s="21" r="F5" t="s">
         <v>12</v>
       </c>
-      <c s="15" r="E5" t="s">
+      <c s="21" r="G5" t="s">
         <v>13</v>
       </c>
-      <c s="15" r="F5" t="s"/>
-      <c s="15" r="G5" t="s">
+      <c s="21" r="H5" t="s"/>
+      <c s="23" r="I5" t="s">
         <v>14</v>
       </c>
-      <c s="15" r="H5" t="s"/>
-      <c s="16" r="I5" t="s">
+      <c s="24" r="J5" t="s">
         <v>15</v>
       </c>
-      <c s="18" r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c s="16" r="K5" t="s"/>
-      <c s="18" r="L5" t="s"/>
+      <c s="23" r="K5" t="s"/>
+      <c s="24" r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c s="13" r="A6" t="n">
@@ -700,25 +764,21 @@
       <c s="14" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="15" r="D6" t="s">
+      <c s="21" r="D6" t="s"/>
+      <c s="21" r="E6" t="s">
         <v>14</v>
       </c>
-      <c s="15" r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c s="15" r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c s="15" r="G6" t="s"/>
-      <c s="15" r="H6" t="s"/>
-      <c s="16" r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c s="18" r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c s="16" r="K6" t="s"/>
-      <c s="18" r="L6" t="s"/>
+      <c s="21" r="F6" t="s"/>
+      <c s="22" r="G6" t="s"/>
+      <c s="21" r="H6" t="s"/>
+      <c s="23" r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c s="24" r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c s="23" r="K6" t="s"/>
+      <c s="24" r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c s="13" r="A7" t="n">
@@ -730,19 +790,19 @@
       <c s="14" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="15" r="D7" t="s"/>
-      <c s="15" r="E7" t="s"/>
-      <c s="15" r="F7" t="s"/>
-      <c s="15" r="G7" t="s"/>
-      <c s="15" r="H7" t="s"/>
-      <c s="16" r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c s="18" r="J7" t="s">
+      <c s="21" r="D7" t="s"/>
+      <c s="21" r="E7" t="s"/>
+      <c s="21" r="F7" t="s"/>
+      <c s="21" r="G7" t="s"/>
+      <c s="22" r="H7" t="s"/>
+      <c s="23" r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c s="24" r="J7" t="s">
         <v>18</v>
       </c>
-      <c s="16" r="K7" t="s"/>
-      <c s="18" r="L7" t="s"/>
+      <c s="23" r="K7" t="s"/>
+      <c s="24" r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c s="13" r="A8" t="n">
@@ -754,31 +814,29 @@
       <c s="14" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="15" r="D8" t="s">
+      <c s="21" r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c s="21" r="E8" t="s"/>
+      <c s="21" r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c s="21" r="G8" t="s">
         <v>20</v>
       </c>
-      <c s="15" r="E8" t="s"/>
-      <c s="15" r="F8" t="s">
+      <c s="22" r="H8" t="s"/>
+      <c s="23" r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c s="24" r="J8" t="s">
         <v>21</v>
       </c>
-      <c s="15" r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c s="15" r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c s="16" r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c s="18" r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c s="16" r="K8" t="s"/>
-      <c s="18" r="L8" t="s"/>
+      <c s="23" r="K8" t="s"/>
+      <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -786,19 +844,19 @@
       <c s="14" r="C9" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c s="15" r="D9" t="s"/>
-      <c s="15" r="E9" t="s"/>
-      <c s="15" r="F9" t="s"/>
-      <c s="15" r="G9" t="s"/>
-      <c s="15" r="H9" t="s"/>
-      <c s="16" r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c s="18" r="J9" t="s">
+      <c s="21" r="D9" t="s"/>
+      <c s="21" r="E9" t="s"/>
+      <c s="21" r="F9" t="s"/>
+      <c s="21" r="G9" t="s"/>
+      <c s="21" r="H9" t="s"/>
+      <c s="23" r="I9" t="s">
         <v>23</v>
       </c>
-      <c s="16" r="K9" t="s"/>
-      <c s="18" r="L9" t="s"/>
+      <c s="24" r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c s="23" r="K9" t="s"/>
+      <c s="24" r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c s="13" r="A10" t="n">
@@ -810,19 +868,19 @@
       <c s="14" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="15" r="D10" t="s"/>
-      <c s="15" r="E10" t="s"/>
-      <c s="15" r="F10" t="s"/>
-      <c s="15" r="G10" t="s"/>
-      <c s="15" r="H10" t="s"/>
-      <c s="16" r="I10" t="s">
+      <c s="22" r="D10" t="s"/>
+      <c s="22" r="E10" t="s"/>
+      <c s="22" r="F10" t="s"/>
+      <c s="22" r="G10" t="s"/>
+      <c s="22" r="H10" t="s"/>
+      <c s="23" r="I10" t="s">
         <v>25</v>
       </c>
-      <c s="18" r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c s="16" r="K10" t="s"/>
-      <c s="18" r="L10" t="s"/>
+      <c s="24" r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c s="23" r="K10" t="s"/>
+      <c s="24" r="L10" t="s"/>
     </row>
     <row r="11" spans="1:12">
       <c s="13" r="A11" t="n">
@@ -834,27 +892,29 @@
       <c s="14" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="15" r="D11" t="s">
+      <c s="21" r="D11" t="s">
         <v>25</v>
       </c>
-      <c s="15" r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c s="15" r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c s="15" r="G11" t="s"/>
-      <c s="15" r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c s="16" r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c s="18" r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c s="16" r="K11" t="s"/>
-      <c s="18" r="L11" t="s"/>
+      <c s="21" r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c s="21" r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c s="21" r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c s="20" r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c s="23" r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c s="24" r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c s="23" r="K11" t="s"/>
+      <c s="24" r="L11" t="s"/>
     </row>
     <row r="12" spans="1:12">
       <c s="13" r="A12" t="n">
@@ -866,19 +926,21 @@
       <c s="14" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="15" r="D12" t="s"/>
-      <c s="15" r="E12" t="s"/>
-      <c s="15" r="F12" t="s"/>
-      <c s="15" r="G12" t="s"/>
-      <c s="15" r="H12" t="s"/>
-      <c s="16" r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c s="18" r="J12" t="s">
+      <c s="20" r="D12" t="s">
         <v>27</v>
       </c>
-      <c s="16" r="K12" t="s"/>
-      <c s="18" r="L12" t="s"/>
+      <c s="21" r="E12" t="s"/>
+      <c s="21" r="F12" t="s"/>
+      <c s="21" r="G12" t="s"/>
+      <c s="21" r="H12" t="s"/>
+      <c s="23" r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c s="24" r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c s="23" r="K12" t="s"/>
+      <c s="24" r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c s="13" r="A13" t="n">
@@ -890,19 +952,19 @@
       <c s="14" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="15" r="D13" t="s"/>
-      <c s="15" r="E13" t="s"/>
-      <c s="15" r="F13" t="s"/>
-      <c s="15" r="G13" t="s"/>
-      <c s="15" r="H13" t="s"/>
-      <c s="16" r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c s="18" r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c s="16" r="K13" t="s"/>
-      <c s="18" r="L13" t="s"/>
+      <c s="21" r="D13" t="s"/>
+      <c s="21" r="E13" t="s"/>
+      <c s="21" r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c s="21" r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c s="21" r="H13" t="s"/>
+      <c s="23" r="I13" t="s"/>
+      <c s="24" r="J13" t="s"/>
+      <c s="23" r="K13" t="s"/>
+      <c s="24" r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c s="13" r="A14" t="n">
@@ -914,25 +976,19 @@
       <c s="14" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="15" r="D14" t="s"/>
-      <c s="15" r="E14" t="s"/>
-      <c s="15" r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c s="15" r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c s="15" r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c s="16" r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c s="18" r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c s="16" r="K14" t="s"/>
-      <c s="18" r="L14" t="s"/>
+      <c s="21" r="D14" t="s"/>
+      <c s="21" r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c s="21" r="F14" t="s"/>
+      <c s="21" r="G14" t="s"/>
+      <c s="21" r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c s="23" r="I14" t="s"/>
+      <c s="24" r="J14" t="s"/>
+      <c s="23" r="K14" t="s"/>
+      <c s="24" r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c s="13" r="A15" t="n">
@@ -944,17 +1000,17 @@
       <c s="14" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="15" r="D15" t="s"/>
-      <c s="15" r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c s="15" r="F15" t="s"/>
-      <c s="15" r="G15" t="s"/>
-      <c s="15" r="H15" t="s"/>
-      <c s="16" r="I15" t="s"/>
-      <c s="18" r="J15" t="s"/>
-      <c s="16" r="K15" t="s"/>
-      <c s="18" r="L15" t="s"/>
+      <c s="21" r="D15" t="s"/>
+      <c s="21" r="E15" t="s"/>
+      <c s="21" r="F15" t="s"/>
+      <c s="21" r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c s="21" r="H15" t="s"/>
+      <c s="23" r="I15" t="s"/>
+      <c s="24" r="J15" t="s"/>
+      <c s="23" r="K15" t="s"/>
+      <c s="24" r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c s="13" r="A16" t="n">
@@ -966,17 +1022,17 @@
       <c s="14" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="15" r="D16" t="s"/>
-      <c s="15" r="E16" t="s"/>
-      <c s="15" r="F16" t="s"/>
-      <c s="15" r="G16" t="s"/>
-      <c s="15" r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c s="16" r="I16" t="s"/>
-      <c s="18" r="J16" t="s"/>
-      <c s="16" r="K16" t="s"/>
-      <c s="18" r="L16" t="s"/>
+      <c s="21" r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c s="21" r="E16" t="s"/>
+      <c s="21" r="F16" t="s"/>
+      <c s="22" r="G16" t="s"/>
+      <c s="21" r="H16" t="s"/>
+      <c s="23" r="I16" t="s"/>
+      <c s="24" r="J16" t="s"/>
+      <c s="23" r="K16" t="s"/>
+      <c s="24" r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c s="13" r="A17" t="n">
@@ -988,21 +1044,17 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="15" r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c s="15" r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c s="15" r="F17" t="s"/>
-      <c s="15" r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c s="15" r="H17" t="s"/>
-      <c s="16" r="I17" t="s"/>
-      <c s="18" r="J17" t="s"/>
-      <c s="16" r="K17" t="s"/>
-      <c s="18" r="L17" t="s"/>
+      <c s="21" r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c s="21" r="E17" t="s"/>
+      <c s="21" r="F17" t="s"/>
+      <c s="21" r="G17" t="s"/>
+      <c s="22" r="H17" t="s"/>
+      <c s="23" r="I17" t="s"/>
+      <c s="24" r="J17" t="s"/>
+      <c s="23" r="K17" t="s"/>
+      <c s="24" r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c s="13" r="A18" t="n">
@@ -1014,17 +1066,15 @@
       <c s="14" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="15" r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c s="15" r="E18" t="s"/>
-      <c s="15" r="F18" t="s"/>
-      <c s="15" r="G18" t="s"/>
-      <c s="15" r="H18" t="s"/>
-      <c s="16" r="I18" t="s"/>
-      <c s="18" r="J18" t="s"/>
-      <c s="16" r="K18" t="s"/>
-      <c s="18" r="L18" t="s"/>
+      <c s="21" r="D18" t="s"/>
+      <c s="21" r="E18" t="s"/>
+      <c s="21" r="F18" t="s"/>
+      <c s="21" r="G18" t="s"/>
+      <c s="21" r="H18" t="s"/>
+      <c s="23" r="I18" t="s"/>
+      <c s="24" r="J18" t="s"/>
+      <c s="23" r="K18" t="s"/>
+      <c s="24" r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c s="13" r="A19" t="n">
@@ -1036,17 +1086,17 @@
       <c s="14" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="15" r="D19" t="s"/>
-      <c s="15" r="E19" t="s"/>
-      <c s="15" r="F19" t="s"/>
-      <c s="15" r="G19" t="s"/>
-      <c s="15" r="H19" t="s">
-        <v>21</v>
-      </c>
-      <c s="16" r="I19" t="s"/>
-      <c s="18" r="J19" t="s"/>
-      <c s="16" r="K19" t="s"/>
-      <c s="18" r="L19" t="s"/>
+      <c s="21" r="D19" t="s"/>
+      <c s="21" r="E19" t="s"/>
+      <c s="21" r="F19" t="s"/>
+      <c s="21" r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c s="21" r="H19" t="s"/>
+      <c s="23" r="I19" t="s"/>
+      <c s="24" r="J19" t="s"/>
+      <c s="23" r="K19" t="s"/>
+      <c s="24" r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c s="13" r="A20" t="n">
@@ -1058,17 +1108,17 @@
       <c s="14" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="15" r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c s="15" r="E20" t="s"/>
-      <c s="15" r="F20" t="s"/>
-      <c s="15" r="G20" t="s"/>
-      <c s="15" r="H20" t="s"/>
-      <c s="16" r="I20" t="s"/>
-      <c s="18" r="J20" t="s"/>
-      <c s="16" r="K20" t="s"/>
-      <c s="18" r="L20" t="s"/>
+      <c s="21" r="D20" t="s"/>
+      <c s="21" r="E20" t="s"/>
+      <c s="21" r="F20" t="s"/>
+      <c s="21" r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c s="21" r="H20" t="s"/>
+      <c s="23" r="I20" t="s"/>
+      <c s="24" r="J20" t="s"/>
+      <c s="23" r="K20" t="s"/>
+      <c s="24" r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c s="13" r="A21" t="n">
@@ -1080,19 +1130,17 @@
       <c s="14" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="15" r="D21" t="s"/>
-      <c s="15" r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c s="15" r="F21" t="s"/>
-      <c s="15" r="G21" t="s"/>
-      <c s="15" r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c s="16" r="I21" t="s"/>
-      <c s="18" r="J21" t="s"/>
-      <c s="16" r="K21" t="s"/>
-      <c s="18" r="L21" t="s"/>
+      <c s="21" r="D21" t="s"/>
+      <c s="21" r="E21" t="s"/>
+      <c s="22" r="F21" t="s"/>
+      <c s="21" r="G21" t="s"/>
+      <c s="21" r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c s="23" r="I21" t="s"/>
+      <c s="24" r="J21" t="s"/>
+      <c s="23" r="K21" t="s"/>
+      <c s="24" r="L21" t="s"/>
     </row>
     <row customHeight="1" s="8" r="22" ht="15.75" spans="1:12">
       <c s="13" r="A22" t="n">
@@ -1104,15 +1152,15 @@
       <c s="14" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="17" r="D22" t="s"/>
-      <c s="17" r="E22" t="s"/>
-      <c s="17" r="F22" t="s"/>
-      <c s="17" r="G22" t="s"/>
-      <c s="17" r="H22" t="s"/>
-      <c s="16" r="I22" t="s"/>
-      <c s="18" r="J22" t="s"/>
-      <c s="16" r="K22" t="s"/>
-      <c s="18" r="L22" t="s"/>
+      <c s="25" r="D22" t="s"/>
+      <c s="25" r="E22" t="s"/>
+      <c s="25" r="F22" t="s"/>
+      <c s="25" r="G22" t="s"/>
+      <c s="25" r="H22" t="s"/>
+      <c s="23" r="I22" t="s"/>
+      <c s="24" r="J22" t="s"/>
+      <c s="23" r="K22" t="s"/>
+      <c s="24" r="L22" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1212,21 +1260,25 @@
       <c s="14" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="15" r="D5" t="s"/>
-      <c s="15" r="E5" t="s"/>
-      <c s="15" r="F5" t="s">
+      <c s="20" r="D5" t="s">
         <v>28</v>
       </c>
-      <c s="15" r="G5" t="s"/>
-      <c s="15" r="H5" t="s"/>
-      <c s="16" r="I5" t="s">
+      <c s="21" r="E5" t="s">
         <v>29</v>
       </c>
-      <c s="18" r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c s="16" r="K5" t="s"/>
-      <c s="18" r="L5" t="s"/>
+      <c s="21" r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c s="21" r="G5" t="s"/>
+      <c s="21" r="H5" t="s"/>
+      <c s="23" r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c s="24" r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c s="23" r="K5" t="s"/>
+      <c s="24" r="L5" t="s"/>
     </row>
     <row r="6" spans="1:12">
       <c s="13" r="A6" t="n">
@@ -1238,21 +1290,21 @@
       <c s="14" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="15" r="D6" t="s"/>
-      <c s="15" r="E6" t="s"/>
-      <c s="15" r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c s="15" r="G6" t="s"/>
-      <c s="15" r="H6" t="s"/>
-      <c s="16" r="I6" t="s">
+      <c s="21" r="D6" t="s">
         <v>31</v>
       </c>
-      <c s="18" r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c s="16" r="K6" t="s"/>
-      <c s="18" r="L6" t="s"/>
+      <c s="21" r="E6" t="s"/>
+      <c s="21" r="F6" t="s"/>
+      <c s="22" r="G6" t="s"/>
+      <c s="21" r="H6" t="s"/>
+      <c s="23" r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c s="24" r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c s="23" r="K6" t="s"/>
+      <c s="24" r="L6" t="s"/>
     </row>
     <row r="7" spans="1:12">
       <c s="13" r="A7" t="n">
@@ -1264,27 +1316,21 @@
       <c s="14" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="15" r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c s="15" r="E7" t="s">
+      <c s="21" r="D7" t="s"/>
+      <c s="21" r="E7" t="s"/>
+      <c s="21" r="F7" t="s"/>
+      <c s="21" r="G7" t="s"/>
+      <c s="22" r="H7" t="s">
         <v>33</v>
       </c>
-      <c s="15" r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c s="15" r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c s="15" r="H7" t="s"/>
-      <c s="16" r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c s="18" r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c s="16" r="K7" t="s"/>
-      <c s="18" r="L7" t="s"/>
+      <c s="23" r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c s="24" r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c s="23" r="K7" t="s"/>
+      <c s="24" r="L7" t="s"/>
     </row>
     <row r="8" spans="1:12">
       <c s="13" r="A8" t="n">
@@ -1296,25 +1342,25 @@
       <c s="14" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="15" r="D8" t="s"/>
-      <c s="15" r="E8" t="s">
+      <c s="21" r="D8" t="s"/>
+      <c s="21" r="E8" t="s"/>
+      <c s="21" r="F8" t="s"/>
+      <c s="21" r="G8" t="s"/>
+      <c s="22" r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c s="23" r="I8" t="s">
         <v>35</v>
       </c>
-      <c s="15" r="F8" t="s"/>
-      <c s="15" r="G8" t="s"/>
-      <c s="15" r="H8" t="s"/>
-      <c s="16" r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c s="18" r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c s="16" r="K8" t="s"/>
-      <c s="18" r="L8" t="s"/>
+      <c s="24" r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c s="23" r="K8" t="s"/>
+      <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -1322,23 +1368,19 @@
       <c s="14" r="C9" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c s="15" r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c s="15" r="E9" t="s"/>
-      <c s="15" r="F9" t="s"/>
-      <c s="15" r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c s="15" r="H9" t="s"/>
-      <c s="16" r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c s="18" r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c s="16" r="K9" t="s"/>
-      <c s="18" r="L9" t="s"/>
+      <c s="21" r="D9" t="s"/>
+      <c s="21" r="E9" t="s"/>
+      <c s="21" r="F9" t="s"/>
+      <c s="21" r="G9" t="s"/>
+      <c s="21" r="H9" t="s"/>
+      <c s="23" r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c s="24" r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c s="23" r="K9" t="s"/>
+      <c s="24" r="L9" t="s"/>
     </row>
     <row r="10" spans="1:12">
       <c s="13" r="A10" t="n">
@@ -1350,19 +1392,19 @@
       <c s="14" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="15" r="D10" t="s"/>
-      <c s="15" r="E10" t="s"/>
-      <c s="15" r="F10" t="s"/>
-      <c s="15" r="G10" t="s"/>
-      <c s="15" r="H10" t="s"/>
-      <c s="16" r="I10" t="s">
+      <c s="22" r="D10" t="s"/>
+      <c s="22" r="E10" t="s"/>
+      <c s="22" r="F10" t="s"/>
+      <c s="22" r="G10" t="s"/>
+      <c s="22" r="H10" t="s"/>
+      <c s="23" r="I10" t="s">
         <v>36</v>
       </c>
-      <c s="18" r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c s="16" r="K10" t="s"/>
-      <c s="18" r="L10" t="s"/>
+      <c s="24" r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c s="23" r="K10" t="s"/>
+      <c s="24" r="L10" t="s"/>
     </row>
     <row r="11" spans="1:12">
       <c s="13" r="A11" t="n">
@@ -1374,21 +1416,27 @@
       <c s="14" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="15" r="D11" t="s"/>
-      <c s="15" r="E11" t="s"/>
-      <c s="15" r="F11" t="s"/>
-      <c s="15" r="G11" t="s">
+      <c s="20" r="D11" t="s">
         <v>37</v>
       </c>
-      <c s="15" r="H11" t="s"/>
-      <c s="16" r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c s="18" r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c s="16" r="K11" t="s"/>
-      <c s="18" r="L11" t="s"/>
+      <c s="21" r="E11" t="s"/>
+      <c s="20" r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c s="20" r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c s="21" r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c s="23" r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c s="24" r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c s="23" r="K11" t="s"/>
+      <c s="24" r="L11" t="s"/>
     </row>
     <row r="12" spans="1:12">
       <c s="13" r="A12" t="n">
@@ -1400,21 +1448,25 @@
       <c s="14" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="15" r="D12" t="s"/>
-      <c s="15" r="E12" t="s"/>
-      <c s="15" r="F12" t="s"/>
-      <c s="15" r="G12" t="s"/>
-      <c s="15" r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c s="16" r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c s="18" r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c s="16" r="K12" t="s"/>
-      <c s="18" r="L12" t="s"/>
+      <c s="21" r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c s="21" r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c s="21" r="F12" t="s"/>
+      <c s="21" r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c s="21" r="H12" t="s"/>
+      <c s="23" r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c s="24" r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c s="23" r="K12" t="s"/>
+      <c s="24" r="L12" t="s"/>
     </row>
     <row r="13" spans="1:12">
       <c s="13" r="A13" t="n">
@@ -1426,23 +1478,21 @@
       <c s="14" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="15" r="D13" t="s"/>
-      <c s="15" r="E13" t="s"/>
-      <c s="15" r="F13" t="s">
+      <c s="21" r="D13" t="s"/>
+      <c s="21" r="E13" t="s"/>
+      <c s="21" r="F13" t="s">
         <v>35</v>
       </c>
-      <c s="15" r="G13" t="s"/>
-      <c s="15" r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c s="16" r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c s="18" r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c s="16" r="K13" t="s"/>
-      <c s="18" r="L13" t="s"/>
+      <c s="21" r="G13" t="s"/>
+      <c s="21" r="H13" t="s"/>
+      <c s="23" r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c s="24" r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c s="23" r="K13" t="s"/>
+      <c s="24" r="L13" t="s"/>
     </row>
     <row r="14" spans="1:12">
       <c s="13" r="A14" t="n">
@@ -1454,21 +1504,23 @@
       <c s="14" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="15" r="D14" t="s"/>
-      <c s="15" r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c s="15" r="F14" t="s"/>
-      <c s="15" r="G14" t="s"/>
-      <c s="15" r="H14" t="s"/>
-      <c s="16" r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c s="18" r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c s="16" r="K14" t="s"/>
-      <c s="18" r="L14" t="s"/>
+      <c s="21" r="D14" t="s"/>
+      <c s="21" r="E14" t="s"/>
+      <c s="21" r="F14" t="s"/>
+      <c s="20" r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c s="21" r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c s="23" r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c s="24" r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c s="23" r="K14" t="s"/>
+      <c s="24" r="L14" t="s"/>
     </row>
     <row r="15" spans="1:12">
       <c s="13" r="A15" t="n">
@@ -1480,29 +1532,25 @@
       <c s="14" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="15" r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c s="15" r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c s="15" r="F15" t="s">
+      <c s="21" r="D15" t="s"/>
+      <c s="21" r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c s="21" r="F15" t="s">
         <v>32</v>
       </c>
-      <c s="15" r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c s="15" r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c s="16" r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c s="18" r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c s="16" r="K15" t="s"/>
-      <c s="18" r="L15" t="s"/>
+      <c s="20" r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c s="21" r="H15" t="s"/>
+      <c s="23" r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c s="24" r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c s="23" r="K15" t="s"/>
+      <c s="24" r="L15" t="s"/>
     </row>
     <row r="16" spans="1:12">
       <c s="13" r="A16" t="n">
@@ -1514,21 +1562,25 @@
       <c s="14" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="15" r="D16" t="s"/>
-      <c s="15" r="E16" t="s"/>
-      <c s="15" r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c s="15" r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c s="15" r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c s="16" r="I16" t="s"/>
-      <c s="18" r="J16" t="s"/>
-      <c s="16" r="K16" t="s"/>
-      <c s="18" r="L16" t="s"/>
+      <c s="21" r="D16" t="s"/>
+      <c s="21" r="E16" t="s"/>
+      <c s="20" r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c s="22" r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c s="21" r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c s="23" r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c s="24" r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c s="23" r="K16" t="s"/>
+      <c s="24" r="L16" t="s"/>
     </row>
     <row r="17" spans="1:12">
       <c s="13" r="A17" t="n">
@@ -1540,15 +1592,23 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="15" r="D17" t="s"/>
-      <c s="15" r="E17" t="s"/>
-      <c s="15" r="F17" t="s"/>
-      <c s="15" r="G17" t="s"/>
-      <c s="15" r="H17" t="s"/>
-      <c s="16" r="I17" t="s"/>
-      <c s="18" r="J17" t="s"/>
-      <c s="16" r="K17" t="s"/>
-      <c s="18" r="L17" t="s"/>
+      <c s="20" r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c s="21" r="E17" t="s"/>
+      <c s="21" r="F17" t="s"/>
+      <c s="21" r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c s="22" r="H17" t="s"/>
+      <c s="23" r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c s="24" r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c s="23" r="K17" t="s"/>
+      <c s="24" r="L17" t="s"/>
     </row>
     <row r="18" spans="1:12">
       <c s="13" r="A18" t="n">
@@ -1560,17 +1620,19 @@
       <c s="14" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="15" r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c s="15" r="E18" t="s"/>
-      <c s="15" r="F18" t="s"/>
-      <c s="15" r="G18" t="s"/>
-      <c s="15" r="H18" t="s"/>
-      <c s="16" r="I18" t="s"/>
-      <c s="18" r="J18" t="s"/>
-      <c s="16" r="K18" t="s"/>
-      <c s="18" r="L18" t="s"/>
+      <c s="21" r="D18" t="s"/>
+      <c s="21" r="E18" t="s"/>
+      <c s="21" r="F18" t="s"/>
+      <c s="21" r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c s="20" r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c s="23" r="I18" t="s"/>
+      <c s="24" r="J18" t="s"/>
+      <c s="23" r="K18" t="s"/>
+      <c s="24" r="L18" t="s"/>
     </row>
     <row r="19" spans="1:12">
       <c s="13" r="A19" t="n">
@@ -1582,19 +1644,17 @@
       <c s="14" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="15" r="D19" t="s"/>
-      <c s="15" r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c s="15" r="F19" t="s">
+      <c s="21" r="D19" t="s"/>
+      <c s="21" r="E19" t="s"/>
+      <c s="21" r="F19" t="s"/>
+      <c s="21" r="G19" t="s">
         <v>34</v>
       </c>
-      <c s="15" r="G19" t="s"/>
-      <c s="15" r="H19" t="s"/>
-      <c s="16" r="I19" t="s"/>
-      <c s="18" r="J19" t="s"/>
-      <c s="16" r="K19" t="s"/>
-      <c s="18" r="L19" t="s"/>
+      <c s="21" r="H19" t="s"/>
+      <c s="23" r="I19" t="s"/>
+      <c s="24" r="J19" t="s"/>
+      <c s="23" r="K19" t="s"/>
+      <c s="24" r="L19" t="s"/>
     </row>
     <row r="20" spans="1:12">
       <c s="13" r="A20" t="n">
@@ -1606,19 +1666,17 @@
       <c s="14" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="15" r="D20" t="s"/>
-      <c s="15" r="E20" t="s"/>
-      <c s="15" r="F20" t="s"/>
-      <c s="15" r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c s="15" r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c s="16" r="I20" t="s"/>
-      <c s="18" r="J20" t="s"/>
-      <c s="16" r="K20" t="s"/>
-      <c s="18" r="L20" t="s"/>
+      <c s="21" r="D20" t="s"/>
+      <c s="21" r="E20" t="s"/>
+      <c s="21" r="F20" t="s"/>
+      <c s="21" r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c s="21" r="H20" t="s"/>
+      <c s="23" r="I20" t="s"/>
+      <c s="24" r="J20" t="s"/>
+      <c s="23" r="K20" t="s"/>
+      <c s="24" r="L20" t="s"/>
     </row>
     <row r="21" spans="1:12">
       <c s="13" r="A21" t="n">
@@ -1630,19 +1688,17 @@
       <c s="14" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="15" r="D21" t="s"/>
-      <c s="15" r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c s="15" r="F21" t="s"/>
-      <c s="15" r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c s="15" r="H21" t="s"/>
-      <c s="16" r="I21" t="s"/>
-      <c s="18" r="J21" t="s"/>
-      <c s="16" r="K21" t="s"/>
-      <c s="18" r="L21" t="s"/>
+      <c s="21" r="D21" t="s"/>
+      <c s="21" r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c s="22" r="F21" t="s"/>
+      <c s="21" r="G21" t="s"/>
+      <c s="21" r="H21" t="s"/>
+      <c s="23" r="I21" t="s"/>
+      <c s="24" r="J21" t="s"/>
+      <c s="23" r="K21" t="s"/>
+      <c s="24" r="L21" t="s"/>
     </row>
     <row customHeight="1" s="8" r="22" ht="15.75" spans="1:12">
       <c s="13" r="A22" t="n">
@@ -1654,15 +1710,15 @@
       <c s="14" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="17" r="D22" t="s"/>
-      <c s="17" r="E22" t="s"/>
-      <c s="17" r="F22" t="s"/>
-      <c s="17" r="G22" t="s"/>
-      <c s="17" r="H22" t="s"/>
-      <c s="16" r="I22" t="s"/>
-      <c s="18" r="J22" t="s"/>
-      <c s="16" r="K22" t="s"/>
-      <c s="18" r="L22" t="s"/>
+      <c s="25" r="D22" t="s"/>
+      <c s="25" r="E22" t="s"/>
+      <c s="25" r="F22" t="s"/>
+      <c s="25" r="G22" t="s"/>
+      <c s="25" r="H22" t="s"/>
+      <c s="23" r="I22" t="s"/>
+      <c s="24" r="J22" t="s"/>
+      <c s="23" r="K22" t="s"/>
+      <c s="24" r="L22" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Proyecto/data/horarioLaboratorios.xlsx
+++ b/Proyecto/data/horarioLaboratorios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Laboratorio</t>
   </si>
@@ -53,115 +53,106 @@
     <t>Viernes</t>
   </si>
   <si>
+    <t>22IE2009</t>
+  </si>
+  <si>
+    <t>11IE3048</t>
+  </si>
+  <si>
+    <t>21IE2010</t>
+  </si>
+  <si>
+    <t>Profesor4SegundoN_Apellido1Apellido2</t>
+  </si>
+  <si>
     <t>12IE3028</t>
   </si>
   <si>
+    <t>11IE3049</t>
+  </si>
+  <si>
+    <t>12IE2011</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apellido1Sepa</t>
+  </si>
+  <si>
+    <t>Receso</t>
+  </si>
+  <si>
+    <t>11IE2011</t>
+  </si>
+  <si>
+    <t>Miguelnose_apellidoapellido2</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoSamayoa</t>
+  </si>
+  <si>
+    <t>11IE2013</t>
+  </si>
+  <si>
+    <t>11IE2011, 11IE2009, 11IE2009</t>
+  </si>
+  <si>
+    <t>11IE2008</t>
+  </si>
+  <si>
+    <t>11IE2009</t>
+  </si>
+  <si>
+    <t>11IE2013, 11IE2008</t>
+  </si>
+  <si>
+    <t>21IE2010, 12IE2011</t>
+  </si>
+  <si>
+    <t>21IE2009</t>
+  </si>
+  <si>
+    <t>31IE2009, 21IE3028</t>
+  </si>
+  <si>
+    <t>31IE2009</t>
+  </si>
+  <si>
+    <t>31IE2010</t>
+  </si>
+  <si>
+    <t>22IE2010</t>
+  </si>
+  <si>
+    <t>11IE3028</t>
+  </si>
+  <si>
+    <t>11IE2010</t>
+  </si>
+  <si>
+    <t>12IE2013</t>
+  </si>
+  <si>
+    <t>Profesor5segundoN5_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>32IE2010</t>
+  </si>
+  <si>
+    <t>21IE3028</t>
+  </si>
+  <si>
     <t>12IE2010</t>
   </si>
   <si>
-    <t>22IE2010</t>
-  </si>
-  <si>
-    <t>Miguelnose_apellidoapellido2</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoSamayoa</t>
-  </si>
-  <si>
-    <t>22IE2009</t>
-  </si>
-  <si>
-    <t>Profesor4SegundoN_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>21IE3028</t>
-  </si>
-  <si>
-    <t>11IE2009</t>
-  </si>
-  <si>
-    <t>Profesor5segundoN5_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>Receso</t>
-  </si>
-  <si>
-    <t>11IE2011</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apellido1Sepa</t>
-  </si>
-  <si>
-    <t>31IE2009</t>
-  </si>
-  <si>
-    <t>22IE2009, 21IE3028</t>
-  </si>
-  <si>
-    <t>12IE3028, 11IE2011</t>
-  </si>
-  <si>
-    <t>31IE2010, 12IE2011</t>
-  </si>
-  <si>
-    <t>21IE2009</t>
-  </si>
-  <si>
-    <t>21IE2010</t>
-  </si>
-  <si>
-    <t>31IE2010</t>
-  </si>
-  <si>
-    <t>11IE3028</t>
-  </si>
-  <si>
-    <t>11IE2013</t>
-  </si>
-  <si>
     <t>12IE2009</t>
   </si>
   <si>
-    <t>11IE3048</t>
-  </si>
-  <si>
-    <t>32IE2010</t>
-  </si>
-  <si>
-    <t>11IE2010, 12IE2013</t>
-  </si>
-  <si>
-    <t>11IE3048, 12IE2011</t>
-  </si>
-  <si>
-    <t>11IE3028, 11IE2010, 11IE2008</t>
-  </si>
-  <si>
-    <t>11IE2008</t>
-  </si>
-  <si>
-    <t>11IE2010</t>
-  </si>
-  <si>
-    <t>11IE3049</t>
-  </si>
-  <si>
-    <t>12IE2011</t>
-  </si>
-  <si>
-    <t>21IE2010, 11IE2013</t>
-  </si>
-  <si>
-    <t>12IE2013</t>
-  </si>
-  <si>
-    <t>11IE2010, 11IE3049</t>
-  </si>
-  <si>
-    <t>11IE2008, 12IE2009</t>
-  </si>
-  <si>
-    <t>21IE2009, 32IE2010</t>
+    <t>31IE2010, 32IE2010</t>
+  </si>
+  <si>
+    <t>11IE2010, 12IE2009</t>
+  </si>
+  <si>
+    <t>21IE2009, 11IE2010</t>
   </si>
 </sst>
 </file>
@@ -736,15 +727,15 @@
       <c s="14" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="21" r="D5" t="s"/>
+      <c s="21" r="D5" t="s">
+        <v>12</v>
+      </c>
       <c s="21" r="E5" t="s"/>
-      <c s="21" r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c s="21" r="G5" t="s">
+      <c s="21" r="F5" t="s"/>
+      <c s="21" r="G5" t="s"/>
+      <c s="21" r="H5" t="s">
         <v>13</v>
       </c>
-      <c s="21" r="H5" t="s"/>
       <c s="23" r="I5" t="s">
         <v>14</v>
       </c>
@@ -765,17 +756,15 @@
         <v>0.3576388888888889</v>
       </c>
       <c s="21" r="D6" t="s"/>
-      <c s="21" r="E6" t="s">
-        <v>14</v>
-      </c>
+      <c s="21" r="E6" t="s"/>
       <c s="21" r="F6" t="s"/>
-      <c s="22" r="G6" t="s"/>
+      <c s="21" r="G6" t="s"/>
       <c s="21" r="H6" t="s"/>
       <c s="23" r="I6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="24" r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c s="23" r="K6" t="s"/>
       <c s="24" r="L6" t="s"/>
@@ -791,15 +780,17 @@
         <v>0.3923611111111111</v>
       </c>
       <c s="21" r="D7" t="s"/>
-      <c s="21" r="E7" t="s"/>
+      <c s="21" r="E7" t="s">
+        <v>16</v>
+      </c>
       <c s="21" r="F7" t="s"/>
       <c s="21" r="G7" t="s"/>
-      <c s="22" r="H7" t="s"/>
+      <c s="21" r="H7" t="s"/>
       <c s="23" r="I7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c s="24" r="J7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c s="23" r="K7" t="s"/>
       <c s="24" r="L7" t="s"/>
@@ -814,29 +805,27 @@
       <c s="14" r="C8" t="n">
         <v>0.4270833333333333</v>
       </c>
-      <c s="21" r="D8" t="s">
-        <v>19</v>
-      </c>
+      <c s="21" r="D8" t="s"/>
       <c s="21" r="E8" t="s"/>
-      <c s="21" r="F8" t="s">
-        <v>12</v>
-      </c>
+      <c s="21" r="F8" t="s"/>
       <c s="21" r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c s="22" r="H8" t="s"/>
+        <v>17</v>
+      </c>
+      <c s="21" r="H8" t="s">
+        <v>18</v>
+      </c>
       <c s="23" r="I8" t="s">
         <v>13</v>
       </c>
       <c s="24" r="J8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c s="23" r="K8" t="s"/>
       <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -850,10 +839,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="21" r="H9" t="s"/>
       <c s="23" r="I9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c s="24" r="J9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c s="23" r="K9" t="s"/>
       <c s="24" r="L9" t="s"/>
@@ -868,16 +857,18 @@
       <c s="14" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="22" r="D10" t="s"/>
-      <c s="22" r="E10" t="s"/>
-      <c s="22" r="F10" t="s"/>
-      <c s="22" r="G10" t="s"/>
-      <c s="22" r="H10" t="s"/>
+      <c s="21" r="D10" t="s"/>
+      <c s="21" r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c s="21" r="F10" t="s"/>
+      <c s="21" r="G10" t="s"/>
+      <c s="21" r="H10" t="s"/>
       <c s="23" r="I10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c s="24" r="J10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c s="23" r="K10" t="s"/>
       <c s="24" r="L10" t="s"/>
@@ -893,25 +884,21 @@
         <v>0.5104166666666666</v>
       </c>
       <c s="21" r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c s="21" r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c s="21" r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c s="21" r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c s="20" r="H11" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c s="21" r="F11" t="s"/>
+      <c s="21" r="G11" t="s"/>
+      <c s="21" r="H11" t="s">
+        <v>12</v>
       </c>
       <c s="23" r="I11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c s="24" r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c s="23" r="K11" t="s"/>
       <c s="24" r="L11" t="s"/>
@@ -926,18 +913,16 @@
       <c s="14" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="20" r="D12" t="s">
-        <v>27</v>
-      </c>
+      <c s="21" r="D12" t="s"/>
       <c s="21" r="E12" t="s"/>
       <c s="21" r="F12" t="s"/>
       <c s="21" r="G12" t="s"/>
       <c s="21" r="H12" t="s"/>
       <c s="23" r="I12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c s="24" r="J12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c s="23" r="K12" t="s"/>
       <c s="24" r="L12" t="s"/>
@@ -953,16 +938,18 @@
         <v>0.5798611111111112</v>
       </c>
       <c s="21" r="D13" t="s"/>
-      <c s="21" r="E13" t="s"/>
-      <c s="21" r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c s="21" r="G13" t="s">
-        <v>13</v>
-      </c>
+      <c s="20" r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c s="21" r="F13" t="s"/>
+      <c s="21" r="G13" t="s"/>
       <c s="21" r="H13" t="s"/>
-      <c s="23" r="I13" t="s"/>
-      <c s="24" r="J13" t="s"/>
+      <c s="23" r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c s="24" r="J13" t="s">
+        <v>19</v>
+      </c>
       <c s="23" r="K13" t="s"/>
       <c s="24" r="L13" t="s"/>
     </row>
@@ -976,17 +963,23 @@
       <c s="14" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="21" r="D14" t="s"/>
-      <c s="21" r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c s="21" r="F14" t="s"/>
-      <c s="21" r="G14" t="s"/>
-      <c s="21" r="H14" t="s">
+      <c s="21" r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c s="21" r="E14" t="s"/>
+      <c s="21" r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c s="21" r="G14" t="s">
         <v>17</v>
       </c>
-      <c s="23" r="I14" t="s"/>
-      <c s="24" r="J14" t="s"/>
+      <c s="21" r="H14" t="s"/>
+      <c s="23" r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c s="24" r="J14" t="s">
+        <v>23</v>
+      </c>
       <c s="23" r="K14" t="s"/>
       <c s="24" r="L14" t="s"/>
     </row>
@@ -1002,11 +995,13 @@
       </c>
       <c s="21" r="D15" t="s"/>
       <c s="21" r="E15" t="s"/>
-      <c s="21" r="F15" t="s"/>
-      <c s="21" r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c s="21" r="H15" t="s"/>
+      <c s="21" r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c s="21" r="G15" t="s"/>
+      <c s="21" r="H15" t="s">
+        <v>18</v>
+      </c>
       <c s="23" r="I15" t="s"/>
       <c s="24" r="J15" t="s"/>
       <c s="23" r="K15" t="s"/>
@@ -1023,12 +1018,14 @@
         <v>0.6840277777777778</v>
       </c>
       <c s="21" r="D16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c s="21" r="E16" t="s"/>
       <c s="21" r="F16" t="s"/>
-      <c s="22" r="G16" t="s"/>
-      <c s="21" r="H16" t="s"/>
+      <c s="21" r="G16" t="s"/>
+      <c s="21" r="H16" t="s">
+        <v>13</v>
+      </c>
       <c s="23" r="I16" t="s"/>
       <c s="24" r="J16" t="s"/>
       <c s="23" r="K16" t="s"/>
@@ -1044,13 +1041,17 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="21" r="D17" t="s">
-        <v>17</v>
+      <c s="20" r="D17" t="s">
+        <v>28</v>
       </c>
       <c s="21" r="E17" t="s"/>
       <c s="21" r="F17" t="s"/>
-      <c s="21" r="G17" t="s"/>
-      <c s="22" r="H17" t="s"/>
+      <c s="21" r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c s="20" r="H17" t="s">
+        <v>29</v>
+      </c>
       <c s="23" r="I17" t="s"/>
       <c s="24" r="J17" t="s"/>
       <c s="23" r="K17" t="s"/>
@@ -1069,7 +1070,9 @@
       <c s="21" r="D18" t="s"/>
       <c s="21" r="E18" t="s"/>
       <c s="21" r="F18" t="s"/>
-      <c s="21" r="G18" t="s"/>
+      <c s="21" r="G18" t="s">
+        <v>14</v>
+      </c>
       <c s="21" r="H18" t="s"/>
       <c s="23" r="I18" t="s"/>
       <c s="24" r="J18" t="s"/>
@@ -1089,9 +1092,7 @@
       <c s="21" r="D19" t="s"/>
       <c s="21" r="E19" t="s"/>
       <c s="21" r="F19" t="s"/>
-      <c s="21" r="G19" t="s">
-        <v>23</v>
-      </c>
+      <c s="21" r="G19" t="s"/>
       <c s="21" r="H19" t="s"/>
       <c s="23" r="I19" t="s"/>
       <c s="24" r="J19" t="s"/>
@@ -1110,11 +1111,13 @@
       </c>
       <c s="21" r="D20" t="s"/>
       <c s="21" r="E20" t="s"/>
-      <c s="21" r="F20" t="s"/>
-      <c s="21" r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c s="21" r="H20" t="s"/>
+      <c s="21" r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c s="21" r="G20" t="s"/>
+      <c s="21" r="H20" t="s">
+        <v>26</v>
+      </c>
       <c s="23" r="I20" t="s"/>
       <c s="24" r="J20" t="s"/>
       <c s="23" r="K20" t="s"/>
@@ -1130,13 +1133,13 @@
       <c s="14" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="21" r="D21" t="s"/>
+      <c s="21" r="D21" t="s">
+        <v>21</v>
+      </c>
       <c s="21" r="E21" t="s"/>
-      <c s="22" r="F21" t="s"/>
+      <c s="21" r="F21" t="s"/>
       <c s="21" r="G21" t="s"/>
-      <c s="21" r="H21" t="s">
-        <v>19</v>
-      </c>
+      <c s="21" r="H21" t="s"/>
       <c s="23" r="I21" t="s"/>
       <c s="24" r="J21" t="s"/>
       <c s="23" r="K21" t="s"/>
@@ -1152,11 +1155,15 @@
       <c s="14" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="25" r="D22" t="s"/>
-      <c s="25" r="E22" t="s"/>
-      <c s="25" r="F22" t="s"/>
-      <c s="25" r="G22" t="s"/>
-      <c s="25" r="H22" t="s"/>
+      <c s="21" r="D22" t="s"/>
+      <c s="21" r="E22" t="s"/>
+      <c s="21" r="F22" t="s"/>
+      <c s="21" r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c s="21" r="H22" t="s">
+        <v>27</v>
+      </c>
       <c s="23" r="I22" t="s"/>
       <c s="24" r="J22" t="s"/>
       <c s="23" r="K22" t="s"/>
@@ -1260,22 +1267,24 @@
       <c s="14" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="20" r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c s="21" r="E5" t="s">
-        <v>29</v>
+      <c s="21" r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c s="20" r="E5" t="s">
+        <v>31</v>
       </c>
       <c s="21" r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c s="21" r="G5" t="s"/>
-      <c s="21" r="H5" t="s"/>
+      <c s="21" r="H5" t="s">
+        <v>33</v>
+      </c>
       <c s="23" r="I5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c s="24" r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="23" r="K5" t="s"/>
       <c s="24" r="L5" t="s"/>
@@ -1291,17 +1300,19 @@
         <v>0.3576388888888889</v>
       </c>
       <c s="21" r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c s="21" r="E6" t="s"/>
+        <v>34</v>
+      </c>
+      <c s="21" r="E6" t="s">
+        <v>33</v>
+      </c>
       <c s="21" r="F6" t="s"/>
-      <c s="22" r="G6" t="s"/>
+      <c s="21" r="G6" t="s"/>
       <c s="21" r="H6" t="s"/>
       <c s="23" r="I6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c s="24" r="J6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c s="23" r="K6" t="s"/>
       <c s="24" r="L6" t="s"/>
@@ -1320,14 +1331,12 @@
       <c s="21" r="E7" t="s"/>
       <c s="21" r="F7" t="s"/>
       <c s="21" r="G7" t="s"/>
-      <c s="22" r="H7" t="s">
-        <v>33</v>
-      </c>
+      <c s="21" r="H7" t="s"/>
       <c s="23" r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="24" r="J7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c s="23" r="K7" t="s"/>
       <c s="24" r="L7" t="s"/>
@@ -1343,24 +1352,26 @@
         <v>0.4270833333333333</v>
       </c>
       <c s="21" r="D8" t="s"/>
-      <c s="21" r="E8" t="s"/>
-      <c s="21" r="F8" t="s"/>
+      <c s="21" r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c s="21" r="F8" t="s">
+        <v>37</v>
+      </c>
       <c s="21" r="G8" t="s"/>
-      <c s="22" r="H8" t="s">
-        <v>34</v>
-      </c>
+      <c s="21" r="H8" t="s"/>
       <c s="23" r="I8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c s="24" r="J8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c s="23" r="K8" t="s"/>
       <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -1374,7 +1385,7 @@
       <c s="21" r="G9" t="s"/>
       <c s="21" r="H9" t="s"/>
       <c s="23" r="I9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c s="24" r="J9" t="s">
         <v>15</v>
@@ -1392,16 +1403,22 @@
       <c s="14" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="22" r="D10" t="s"/>
-      <c s="22" r="E10" t="s"/>
-      <c s="22" r="F10" t="s"/>
-      <c s="22" r="G10" t="s"/>
-      <c s="22" r="H10" t="s"/>
+      <c s="21" r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c s="21" r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c s="21" r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c s="21" r="G10" t="s"/>
+      <c s="21" r="H10" t="s"/>
       <c s="23" r="I10" t="s">
         <v>36</v>
       </c>
       <c s="24" r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="23" r="K10" t="s"/>
       <c s="24" r="L10" t="s"/>
@@ -1416,24 +1433,18 @@
       <c s="14" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="20" r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c s="21" r="E11" t="s"/>
-      <c s="20" r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c s="20" r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c s="21" r="H11" t="s">
-        <v>40</v>
-      </c>
+      <c s="21" r="D11" t="s"/>
+      <c s="21" r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c s="21" r="F11" t="s"/>
+      <c s="21" r="G11" t="s"/>
+      <c s="21" r="H11" t="s"/>
       <c s="23" r="I11" t="s">
         <v>41</v>
       </c>
       <c s="24" r="J11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c s="23" r="K11" t="s"/>
       <c s="24" r="L11" t="s"/>
@@ -1448,22 +1459,18 @@
       <c s="14" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="21" r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c s="21" r="E12" t="s">
-        <v>42</v>
-      </c>
+      <c s="21" r="D12" t="s"/>
+      <c s="21" r="E12" t="s"/>
       <c s="21" r="F12" t="s"/>
       <c s="21" r="G12" t="s">
         <v>42</v>
       </c>
       <c s="21" r="H12" t="s"/>
       <c s="23" r="I12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c s="24" r="J12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c s="23" r="K12" t="s"/>
       <c s="24" r="L12" t="s"/>
@@ -1478,18 +1485,20 @@
       <c s="14" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="21" r="D13" t="s"/>
+      <c s="21" r="D13" t="s">
+        <v>40</v>
+      </c>
       <c s="21" r="E13" t="s"/>
-      <c s="21" r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c s="21" r="G13" t="s"/>
+      <c s="21" r="F13" t="s"/>
+      <c s="20" r="G13" t="s">
+        <v>43</v>
+      </c>
       <c s="21" r="H13" t="s"/>
       <c s="23" r="I13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c s="24" r="J13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c s="23" r="K13" t="s"/>
       <c s="24" r="L13" t="s"/>
@@ -1507,17 +1516,13 @@
       <c s="21" r="D14" t="s"/>
       <c s="21" r="E14" t="s"/>
       <c s="21" r="F14" t="s"/>
-      <c s="20" r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c s="21" r="H14" t="s">
-        <v>30</v>
-      </c>
+      <c s="21" r="G14" t="s"/>
+      <c s="21" r="H14" t="s"/>
       <c s="23" r="I14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c s="24" r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c s="23" r="K14" t="s"/>
       <c s="24" r="L14" t="s"/>
@@ -1534,20 +1539,22 @@
       </c>
       <c s="21" r="D15" t="s"/>
       <c s="21" r="E15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c s="21" r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c s="20" r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c s="21" r="H15" t="s"/>
+        <v>35</v>
+      </c>
+      <c s="21" r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c s="21" r="H15" t="s">
+        <v>34</v>
+      </c>
       <c s="23" r="I15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c s="24" r="J15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c s="23" r="K15" t="s"/>
       <c s="24" r="L15" t="s"/>
@@ -1562,23 +1569,19 @@
       <c s="14" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="21" r="D16" t="s"/>
+      <c s="21" r="D16" t="s">
+        <v>41</v>
+      </c>
       <c s="21" r="E16" t="s"/>
-      <c s="20" r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c s="22" r="G16" t="s">
-        <v>30</v>
+      <c s="21" r="F16" t="s"/>
+      <c s="21" r="G16" t="s">
+        <v>39</v>
       </c>
       <c s="21" r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c s="23" r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c s="24" r="J16" t="s">
-        <v>24</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c s="23" r="I16" t="s"/>
+      <c s="24" r="J16" t="s"/>
       <c s="23" r="K16" t="s"/>
       <c s="24" r="L16" t="s"/>
     </row>
@@ -1592,21 +1595,17 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="20" r="D17" t="s">
-        <v>47</v>
-      </c>
+      <c s="21" r="D17" t="s"/>
       <c s="21" r="E17" t="s"/>
-      <c s="21" r="F17" t="s"/>
-      <c s="21" r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c s="22" r="H17" t="s"/>
-      <c s="23" r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c s="24" r="J17" t="s">
-        <v>16</v>
-      </c>
+      <c s="21" r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c s="21" r="G17" t="s"/>
+      <c s="21" r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c s="23" r="I17" t="s"/>
+      <c s="24" r="J17" t="s"/>
       <c s="23" r="K17" t="s"/>
       <c s="24" r="L17" t="s"/>
     </row>
@@ -1623,12 +1622,8 @@
       <c s="21" r="D18" t="s"/>
       <c s="21" r="E18" t="s"/>
       <c s="21" r="F18" t="s"/>
-      <c s="21" r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c s="20" r="H18" t="s">
-        <v>48</v>
-      </c>
+      <c s="21" r="G18" t="s"/>
+      <c s="21" r="H18" t="s"/>
       <c s="23" r="I18" t="s"/>
       <c s="24" r="J18" t="s"/>
       <c s="23" r="K18" t="s"/>
@@ -1647,9 +1642,7 @@
       <c s="21" r="D19" t="s"/>
       <c s="21" r="E19" t="s"/>
       <c s="21" r="F19" t="s"/>
-      <c s="21" r="G19" t="s">
-        <v>34</v>
-      </c>
+      <c s="21" r="G19" t="s"/>
       <c s="21" r="H19" t="s"/>
       <c s="23" r="I19" t="s"/>
       <c s="24" r="J19" t="s"/>
@@ -1667,11 +1660,11 @@
         <v>0.8229166666666666</v>
       </c>
       <c s="21" r="D20" t="s"/>
-      <c s="21" r="E20" t="s"/>
+      <c s="21" r="E20" t="s">
+        <v>41</v>
+      </c>
       <c s="21" r="F20" t="s"/>
-      <c s="21" r="G20" t="s">
-        <v>36</v>
-      </c>
+      <c s="21" r="G20" t="s"/>
       <c s="21" r="H20" t="s"/>
       <c s="23" r="I20" t="s"/>
       <c s="24" r="J20" t="s"/>
@@ -1690,9 +1683,9 @@
       </c>
       <c s="21" r="D21" t="s"/>
       <c s="21" r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c s="22" r="F21" t="s"/>
+        <v>35</v>
+      </c>
+      <c s="21" r="F21" t="s"/>
       <c s="21" r="G21" t="s"/>
       <c s="21" r="H21" t="s"/>
       <c s="23" r="I21" t="s"/>
@@ -1710,11 +1703,17 @@
       <c s="14" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="25" r="D22" t="s"/>
-      <c s="25" r="E22" t="s"/>
-      <c s="25" r="F22" t="s"/>
-      <c s="25" r="G22" t="s"/>
-      <c s="25" r="H22" t="s"/>
+      <c s="21" r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c s="21" r="E22" t="s"/>
+      <c s="20" r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c s="20" r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c s="21" r="H22" t="s"/>
       <c s="23" r="I22" t="s"/>
       <c s="24" r="J22" t="s"/>
       <c s="23" r="K22" t="s"/>

--- a/Proyecto/data/horarioLaboratorios.xlsx
+++ b/Proyecto/data/horarioLaboratorios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Laboratorio</t>
   </si>
@@ -53,106 +53,100 @@
     <t>Viernes</t>
   </si>
   <si>
+    <t>31IE2010</t>
+  </si>
+  <si>
+    <t>12IE2011</t>
+  </si>
+  <si>
+    <t>21IE2010</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apellido1Sepa</t>
+  </si>
+  <si>
+    <t>12IE3028</t>
+  </si>
+  <si>
+    <t>22IE2010</t>
+  </si>
+  <si>
+    <t>Profesor5segundoN5_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>12IE2010</t>
+  </si>
+  <si>
+    <t>11IE3028</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoSamayoa</t>
+  </si>
+  <si>
+    <t>Receso</t>
+  </si>
+  <si>
+    <t>12IE2013</t>
+  </si>
+  <si>
+    <t>11IE2010</t>
+  </si>
+  <si>
+    <t>Profesor4SegundoN_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>11IE2011</t>
+  </si>
+  <si>
+    <t>11IE3028, 11IE2011</t>
+  </si>
+  <si>
+    <t>31IE2010, 11IE2010</t>
+  </si>
+  <si>
+    <t>11IE2010, 12IE2013</t>
+  </si>
+  <si>
+    <t>11IE3048</t>
+  </si>
+  <si>
+    <t>11IE2008</t>
+  </si>
+  <si>
+    <t>12IE2009</t>
+  </si>
+  <si>
+    <t>21IE2009</t>
+  </si>
+  <si>
     <t>22IE2009</t>
   </si>
   <si>
-    <t>11IE3048</t>
-  </si>
-  <si>
-    <t>21IE2010</t>
-  </si>
-  <si>
-    <t>Profesor4SegundoN_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>12IE3028</t>
+    <t>21IE3028</t>
+  </si>
+  <si>
+    <t>22IE2009, 11IE2009</t>
+  </si>
+  <si>
+    <t>32IE2010</t>
+  </si>
+  <si>
+    <t>11IE2013</t>
+  </si>
+  <si>
+    <t>21IE2009, 32IE2010, 21IE3028</t>
+  </si>
+  <si>
+    <t>11IE2009</t>
+  </si>
+  <si>
+    <t>31IE2009</t>
   </si>
   <si>
     <t>11IE3049</t>
   </si>
   <si>
-    <t>12IE2011</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apellido1Sepa</t>
-  </si>
-  <si>
-    <t>Receso</t>
-  </si>
-  <si>
-    <t>11IE2011</t>
-  </si>
-  <si>
-    <t>Miguelnose_apellidoapellido2</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoSamayoa</t>
-  </si>
-  <si>
-    <t>11IE2013</t>
-  </si>
-  <si>
-    <t>11IE2011, 11IE2009, 11IE2009</t>
-  </si>
-  <si>
-    <t>11IE2008</t>
-  </si>
-  <si>
-    <t>11IE2009</t>
-  </si>
-  <si>
-    <t>11IE2013, 11IE2008</t>
-  </si>
-  <si>
-    <t>21IE2010, 12IE2011</t>
-  </si>
-  <si>
-    <t>21IE2009</t>
-  </si>
-  <si>
-    <t>31IE2009, 21IE3028</t>
-  </si>
-  <si>
-    <t>31IE2009</t>
-  </si>
-  <si>
-    <t>31IE2010</t>
-  </si>
-  <si>
-    <t>22IE2010</t>
-  </si>
-  <si>
-    <t>11IE3028</t>
-  </si>
-  <si>
-    <t>11IE2010</t>
-  </si>
-  <si>
-    <t>12IE2013</t>
-  </si>
-  <si>
-    <t>Profesor5segundoN5_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>32IE2010</t>
-  </si>
-  <si>
-    <t>21IE3028</t>
-  </si>
-  <si>
-    <t>12IE2010</t>
-  </si>
-  <si>
-    <t>12IE2009</t>
-  </si>
-  <si>
-    <t>31IE2010, 32IE2010</t>
-  </si>
-  <si>
-    <t>11IE2010, 12IE2009</t>
-  </si>
-  <si>
-    <t>21IE2009, 11IE2010</t>
+    <t>32IE2010, 11IE3049</t>
   </si>
 </sst>
 </file>
@@ -732,7 +726,9 @@
       </c>
       <c s="21" r="E5" t="s"/>
       <c s="21" r="F5" t="s"/>
-      <c s="21" r="G5" t="s"/>
+      <c s="21" r="G5" t="s">
+        <v>13</v>
+      </c>
       <c s="21" r="H5" t="s">
         <v>13</v>
       </c>
@@ -758,13 +754,15 @@
       <c s="21" r="D6" t="s"/>
       <c s="21" r="E6" t="s"/>
       <c s="21" r="F6" t="s"/>
-      <c s="21" r="G6" t="s"/>
+      <c s="21" r="G6" t="s">
+        <v>16</v>
+      </c>
       <c s="21" r="H6" t="s"/>
       <c s="23" r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="24" r="J6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c s="23" r="K6" t="s"/>
       <c s="24" r="L6" t="s"/>
@@ -780,14 +778,14 @@
         <v>0.3923611111111111</v>
       </c>
       <c s="21" r="D7" t="s"/>
-      <c s="21" r="E7" t="s">
-        <v>16</v>
-      </c>
+      <c s="21" r="E7" t="s"/>
       <c s="21" r="F7" t="s"/>
       <c s="21" r="G7" t="s"/>
-      <c s="21" r="H7" t="s"/>
+      <c s="21" r="H7" t="s">
+        <v>17</v>
+      </c>
       <c s="23" r="I7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c s="24" r="J7" t="s">
         <v>15</v>
@@ -806,26 +804,26 @@
         <v>0.4270833333333333</v>
       </c>
       <c s="21" r="D8" t="s"/>
-      <c s="21" r="E8" t="s"/>
-      <c s="21" r="F8" t="s"/>
-      <c s="21" r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c s="21" r="H8" t="s">
-        <v>18</v>
-      </c>
+      <c s="21" r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c s="21" r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c s="21" r="G8" t="s"/>
+      <c s="21" r="H8" t="s"/>
       <c s="23" r="I8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c s="24" r="J8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="23" r="K8" t="s"/>
       <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -839,10 +837,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="21" r="H9" t="s"/>
       <c s="23" r="I9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c s="24" r="J9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c s="23" r="K9" t="s"/>
       <c s="24" r="L9" t="s"/>
@@ -858,17 +856,19 @@
         <v>0.4756944444444444</v>
       </c>
       <c s="21" r="D10" t="s"/>
-      <c s="21" r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c s="21" r="F10" t="s"/>
+      <c s="21" r="E10" t="s"/>
+      <c s="21" r="F10" t="s">
+        <v>20</v>
+      </c>
       <c s="21" r="G10" t="s"/>
-      <c s="21" r="H10" t="s"/>
+      <c s="21" r="H10" t="s">
+        <v>23</v>
+      </c>
       <c s="23" r="I10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c s="24" r="J10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c s="23" r="K10" t="s"/>
       <c s="24" r="L10" t="s"/>
@@ -883,22 +883,18 @@
       <c s="14" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="21" r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c s="21" r="E11" t="s">
-        <v>17</v>
-      </c>
+      <c s="21" r="D11" t="s"/>
+      <c s="21" r="E11" t="s"/>
       <c s="21" r="F11" t="s"/>
-      <c s="21" r="G11" t="s"/>
-      <c s="21" r="H11" t="s">
-        <v>12</v>
-      </c>
+      <c s="21" r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c s="21" r="H11" t="s"/>
       <c s="23" r="I11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c s="24" r="J11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c s="23" r="K11" t="s"/>
       <c s="24" r="L11" t="s"/>
@@ -916,13 +912,15 @@
       <c s="21" r="D12" t="s"/>
       <c s="21" r="E12" t="s"/>
       <c s="21" r="F12" t="s"/>
-      <c s="21" r="G12" t="s"/>
+      <c s="21" r="G12" t="s">
+        <v>14</v>
+      </c>
       <c s="21" r="H12" t="s"/>
       <c s="23" r="I12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c s="24" r="J12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c s="23" r="K12" t="s"/>
       <c s="24" r="L12" t="s"/>
@@ -937,18 +935,20 @@
       <c s="14" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="21" r="D13" t="s"/>
-      <c s="20" r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c s="21" r="F13" t="s"/>
+      <c s="20" r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c s="21" r="E13" t="s"/>
+      <c s="21" r="F13" t="s">
+        <v>12</v>
+      </c>
       <c s="21" r="G13" t="s"/>
       <c s="21" r="H13" t="s"/>
       <c s="23" r="I13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c s="24" r="J13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="23" r="K13" t="s"/>
       <c s="24" r="L13" t="s"/>
@@ -963,22 +963,18 @@
       <c s="14" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="21" r="D14" t="s">
-        <v>16</v>
-      </c>
+      <c s="21" r="D14" t="s"/>
       <c s="21" r="E14" t="s"/>
       <c s="21" r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c s="21" r="G14" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c s="21" r="G14" t="s"/>
       <c s="21" r="H14" t="s"/>
       <c s="23" r="I14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c s="24" r="J14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c s="23" r="K14" t="s"/>
       <c s="24" r="L14" t="s"/>
@@ -994,14 +990,14 @@
         <v>0.6493055555555556</v>
       </c>
       <c s="21" r="D15" t="s"/>
-      <c s="21" r="E15" t="s"/>
-      <c s="21" r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c s="21" r="G15" t="s"/>
-      <c s="21" r="H15" t="s">
-        <v>18</v>
-      </c>
+      <c s="21" r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c s="21" r="F15" t="s"/>
+      <c s="21" r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c s="21" r="H15" t="s"/>
       <c s="23" r="I15" t="s"/>
       <c s="24" r="J15" t="s"/>
       <c s="23" r="K15" t="s"/>
@@ -1017,15 +1013,11 @@
       <c s="14" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="21" r="D16" t="s">
-        <v>16</v>
-      </c>
+      <c s="21" r="D16" t="s"/>
       <c s="21" r="E16" t="s"/>
       <c s="21" r="F16" t="s"/>
       <c s="21" r="G16" t="s"/>
-      <c s="21" r="H16" t="s">
-        <v>13</v>
-      </c>
+      <c s="21" r="H16" t="s"/>
       <c s="23" r="I16" t="s"/>
       <c s="24" r="J16" t="s"/>
       <c s="23" r="K16" t="s"/>
@@ -1041,17 +1033,15 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="20" r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c s="21" r="E17" t="s"/>
+      <c s="21" r="D17" t="s"/>
+      <c s="21" r="E17" t="s">
+        <v>14</v>
+      </c>
       <c s="21" r="F17" t="s"/>
       <c s="21" r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c s="20" r="H17" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c s="21" r="H17" t="s"/>
       <c s="23" r="I17" t="s"/>
       <c s="24" r="J17" t="s"/>
       <c s="23" r="K17" t="s"/>
@@ -1068,11 +1058,11 @@
         <v>0.7534722222222222</v>
       </c>
       <c s="21" r="D18" t="s"/>
-      <c s="21" r="E18" t="s"/>
+      <c s="21" r="E18" t="s">
+        <v>26</v>
+      </c>
       <c s="21" r="F18" t="s"/>
-      <c s="21" r="G18" t="s">
-        <v>14</v>
-      </c>
+      <c s="21" r="G18" t="s"/>
       <c s="21" r="H18" t="s"/>
       <c s="23" r="I18" t="s"/>
       <c s="24" r="J18" t="s"/>
@@ -1090,9 +1080,15 @@
         <v>0.7881944444444444</v>
       </c>
       <c s="21" r="D19" t="s"/>
-      <c s="21" r="E19" t="s"/>
-      <c s="21" r="F19" t="s"/>
-      <c s="21" r="G19" t="s"/>
+      <c s="20" r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c s="21" r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c s="21" r="G19" t="s">
+        <v>14</v>
+      </c>
       <c s="21" r="H19" t="s"/>
       <c s="23" r="I19" t="s"/>
       <c s="24" r="J19" t="s"/>
@@ -1109,11 +1105,13 @@
       <c s="14" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="21" r="D20" t="s"/>
-      <c s="21" r="E20" t="s"/>
-      <c s="21" r="F20" t="s">
-        <v>24</v>
-      </c>
+      <c s="21" r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c s="21" r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c s="21" r="F20" t="s"/>
       <c s="21" r="G20" t="s"/>
       <c s="21" r="H20" t="s">
         <v>26</v>
@@ -1133,9 +1131,7 @@
       <c s="14" r="C21" t="n">
         <v>0.8576388888888888</v>
       </c>
-      <c s="21" r="D21" t="s">
-        <v>21</v>
-      </c>
+      <c s="21" r="D21" t="s"/>
       <c s="21" r="E21" t="s"/>
       <c s="21" r="F21" t="s"/>
       <c s="21" r="G21" t="s"/>
@@ -1156,14 +1152,14 @@
         <v>0.8854166666666666</v>
       </c>
       <c s="21" r="D22" t="s"/>
-      <c s="21" r="E22" t="s"/>
-      <c s="21" r="F22" t="s"/>
-      <c s="21" r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c s="21" r="H22" t="s">
-        <v>27</v>
-      </c>
+      <c s="20" r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c s="21" r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c s="21" r="G22" t="s"/>
+      <c s="21" r="H22" t="s"/>
       <c s="23" r="I22" t="s"/>
       <c s="24" r="J22" t="s"/>
       <c s="23" r="K22" t="s"/>
@@ -1267,24 +1263,22 @@
       <c s="14" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="21" r="D5" t="s">
+      <c s="21" r="D5" t="s"/>
+      <c s="21" r="E5" t="s"/>
+      <c s="21" r="F5" t="s">
         <v>30</v>
       </c>
-      <c s="20" r="E5" t="s">
+      <c s="21" r="G5" t="s">
         <v>31</v>
       </c>
-      <c s="21" r="F5" t="s">
+      <c s="21" r="H5" t="s">
         <v>32</v>
       </c>
-      <c s="21" r="G5" t="s"/>
-      <c s="21" r="H5" t="s">
+      <c s="23" r="I5" t="s">
         <v>33</v>
       </c>
-      <c s="23" r="I5" t="s">
-        <v>34</v>
-      </c>
       <c s="24" r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c s="23" r="K5" t="s"/>
       <c s="24" r="L5" t="s"/>
@@ -1302,17 +1296,17 @@
       <c s="21" r="D6" t="s">
         <v>34</v>
       </c>
-      <c s="21" r="E6" t="s">
-        <v>33</v>
-      </c>
+      <c s="21" r="E6" t="s"/>
       <c s="21" r="F6" t="s"/>
       <c s="21" r="G6" t="s"/>
-      <c s="21" r="H6" t="s"/>
+      <c s="21" r="H6" t="s">
+        <v>35</v>
+      </c>
       <c s="23" r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c s="24" r="J6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c s="23" r="K6" t="s"/>
       <c s="24" r="L6" t="s"/>
@@ -1329,14 +1323,18 @@
       </c>
       <c s="21" r="D7" t="s"/>
       <c s="21" r="E7" t="s"/>
-      <c s="21" r="F7" t="s"/>
-      <c s="21" r="G7" t="s"/>
+      <c s="21" r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c s="20" r="G7" t="s">
+        <v>36</v>
+      </c>
       <c s="21" r="H7" t="s"/>
       <c s="23" r="I7" t="s">
         <v>30</v>
       </c>
       <c s="24" r="J7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c s="23" r="K7" t="s"/>
       <c s="24" r="L7" t="s"/>
@@ -1352,26 +1350,28 @@
         <v>0.4270833333333333</v>
       </c>
       <c s="21" r="D8" t="s"/>
-      <c s="21" r="E8" t="s">
-        <v>36</v>
-      </c>
+      <c s="21" r="E8" t="s"/>
       <c s="21" r="F8" t="s">
         <v>37</v>
       </c>
-      <c s="21" r="G8" t="s"/>
-      <c s="21" r="H8" t="s"/>
+      <c s="21" r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c s="21" r="H8" t="s">
+        <v>32</v>
+      </c>
       <c s="23" r="I8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c s="24" r="J8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c s="23" r="K8" t="s"/>
       <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -1385,10 +1385,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="21" r="H9" t="s"/>
       <c s="23" r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c s="24" r="J9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="23" r="K9" t="s"/>
       <c s="24" r="L9" t="s"/>
@@ -1403,22 +1403,20 @@
       <c s="14" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="21" r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c s="21" r="E10" t="s">
+      <c s="21" r="D10" t="s"/>
+      <c s="21" r="E10" t="s"/>
+      <c s="20" r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c s="21" r="G10" t="s">
         <v>40</v>
       </c>
-      <c s="21" r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c s="21" r="G10" t="s"/>
       <c s="21" r="H10" t="s"/>
       <c s="23" r="I10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c s="24" r="J10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c s="23" r="K10" t="s"/>
       <c s="24" r="L10" t="s"/>
@@ -1434,17 +1432,15 @@
         <v>0.5104166666666666</v>
       </c>
       <c s="21" r="D11" t="s"/>
-      <c s="21" r="E11" t="s">
-        <v>35</v>
-      </c>
+      <c s="21" r="E11" t="s"/>
       <c s="21" r="F11" t="s"/>
       <c s="21" r="G11" t="s"/>
       <c s="21" r="H11" t="s"/>
       <c s="23" r="I11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="24" r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c s="23" r="K11" t="s"/>
       <c s="24" r="L11" t="s"/>
@@ -1459,18 +1455,22 @@
       <c s="14" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="21" r="D12" t="s"/>
+      <c s="21" r="D12" t="s">
+        <v>41</v>
+      </c>
       <c s="21" r="E12" t="s"/>
-      <c s="21" r="F12" t="s"/>
-      <c s="21" r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c s="21" r="H12" t="s"/>
+      <c s="21" r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c s="21" r="G12" t="s"/>
+      <c s="20" r="H12" t="s">
+        <v>43</v>
+      </c>
       <c s="23" r="I12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c s="24" r="J12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c s="23" r="K12" t="s"/>
       <c s="24" r="L12" t="s"/>
@@ -1486,19 +1486,21 @@
         <v>0.5798611111111112</v>
       </c>
       <c s="21" r="D13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c s="21" r="E13" t="s"/>
-      <c s="21" r="F13" t="s"/>
-      <c s="20" r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c s="21" r="H13" t="s"/>
+      <c s="21" r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c s="21" r="G13" t="s"/>
+      <c s="21" r="H13" t="s">
+        <v>42</v>
+      </c>
       <c s="23" r="I13" t="s">
         <v>32</v>
       </c>
       <c s="24" r="J13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c s="23" r="K13" t="s"/>
       <c s="24" r="L13" t="s"/>
@@ -1514,12 +1516,14 @@
         <v>0.6145833333333334</v>
       </c>
       <c s="21" r="D14" t="s"/>
-      <c s="21" r="E14" t="s"/>
+      <c s="21" r="E14" t="s">
+        <v>33</v>
+      </c>
       <c s="21" r="F14" t="s"/>
       <c s="21" r="G14" t="s"/>
       <c s="21" r="H14" t="s"/>
       <c s="23" r="I14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c s="24" r="J14" t="s">
         <v>15</v>
@@ -1539,22 +1543,18 @@
       </c>
       <c s="21" r="D15" t="s"/>
       <c s="21" r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c s="21" r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c s="21" r="F15" t="s"/>
+      <c s="21" r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c s="21" r="H15" t="s"/>
+      <c s="23" r="I15" t="s">
         <v>35</v>
       </c>
-      <c s="21" r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c s="21" r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c s="23" r="I15" t="s">
-        <v>40</v>
-      </c>
       <c s="24" r="J15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c s="23" r="K15" t="s"/>
       <c s="24" r="L15" t="s"/>
@@ -1569,17 +1569,13 @@
       <c s="14" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="21" r="D16" t="s">
+      <c s="21" r="D16" t="s"/>
+      <c s="21" r="E16" t="s">
         <v>41</v>
       </c>
-      <c s="21" r="E16" t="s"/>
       <c s="21" r="F16" t="s"/>
-      <c s="21" r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c s="21" r="H16" t="s">
-        <v>37</v>
-      </c>
+      <c s="21" r="G16" t="s"/>
+      <c s="21" r="H16" t="s"/>
       <c s="23" r="I16" t="s"/>
       <c s="24" r="J16" t="s"/>
       <c s="23" r="K16" t="s"/>
@@ -1595,15 +1591,15 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="21" r="D17" t="s"/>
+      <c s="21" r="D17" t="s">
+        <v>30</v>
+      </c>
       <c s="21" r="E17" t="s"/>
-      <c s="21" r="F17" t="s">
+      <c s="21" r="F17" t="s"/>
+      <c s="21" r="G17" t="s">
         <v>42</v>
       </c>
-      <c s="21" r="G17" t="s"/>
-      <c s="21" r="H17" t="s">
-        <v>39</v>
-      </c>
+      <c s="21" r="H17" t="s"/>
       <c s="23" r="I17" t="s"/>
       <c s="24" r="J17" t="s"/>
       <c s="23" r="K17" t="s"/>
@@ -1619,7 +1615,9 @@
       <c s="14" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="21" r="D18" t="s"/>
+      <c s="21" r="D18" t="s">
+        <v>41</v>
+      </c>
       <c s="21" r="E18" t="s"/>
       <c s="21" r="F18" t="s"/>
       <c s="21" r="G18" t="s"/>
@@ -1660,12 +1658,12 @@
         <v>0.8229166666666666</v>
       </c>
       <c s="21" r="D20" t="s"/>
-      <c s="21" r="E20" t="s">
-        <v>41</v>
-      </c>
+      <c s="21" r="E20" t="s"/>
       <c s="21" r="F20" t="s"/>
       <c s="21" r="G20" t="s"/>
-      <c s="21" r="H20" t="s"/>
+      <c s="21" r="H20" t="s">
+        <v>38</v>
+      </c>
       <c s="23" r="I20" t="s"/>
       <c s="24" r="J20" t="s"/>
       <c s="23" r="K20" t="s"/>
@@ -1682,9 +1680,7 @@
         <v>0.8576388888888888</v>
       </c>
       <c s="21" r="D21" t="s"/>
-      <c s="21" r="E21" t="s">
-        <v>35</v>
-      </c>
+      <c s="21" r="E21" t="s"/>
       <c s="21" r="F21" t="s"/>
       <c s="21" r="G21" t="s"/>
       <c s="21" r="H21" t="s"/>
@@ -1704,16 +1700,16 @@
         <v>0.8854166666666666</v>
       </c>
       <c s="21" r="D22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c s="21" r="E22" t="s"/>
-      <c s="20" r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c s="20" r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c s="21" r="H22" t="s"/>
+      <c s="21" r="F22" t="s"/>
+      <c s="21" r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c s="21" r="H22" t="s">
+        <v>32</v>
+      </c>
       <c s="23" r="I22" t="s"/>
       <c s="24" r="J22" t="s"/>
       <c s="23" r="K22" t="s"/>

--- a/Proyecto/data/horarioLaboratorios.xlsx
+++ b/Proyecto/data/horarioLaboratorios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Laboratorio</t>
   </si>
@@ -53,100 +53,106 @@
     <t>Viernes</t>
   </si>
   <si>
+    <t>12IE2010</t>
+  </si>
+  <si>
+    <t>21IE2010</t>
+  </si>
+  <si>
+    <t>Profesor4_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>22IE2010</t>
+  </si>
+  <si>
+    <t>12IE3028</t>
+  </si>
+  <si>
+    <t>profesor5_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>11IE3028</t>
+  </si>
+  <si>
+    <t>Receso</t>
+  </si>
+  <si>
+    <t>22IE2009</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>11IE2011</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoSamayoa</t>
+  </si>
+  <si>
+    <t>11IE2013</t>
+  </si>
+  <si>
+    <t>12IE2009</t>
+  </si>
+  <si>
+    <t>21IE3028</t>
+  </si>
+  <si>
+    <t>22IE2009, 12IE2009</t>
+  </si>
+  <si>
+    <t>12IE2010, 11IE2013</t>
+  </si>
+  <si>
+    <t>21IE2010, 11IE2011, 12IE2009</t>
+  </si>
+  <si>
+    <t>11IE3028, 11IE3028</t>
+  </si>
+  <si>
+    <t>11IE2010</t>
+  </si>
+  <si>
+    <t>21IE2009</t>
+  </si>
+  <si>
+    <t>31IE2010, 11IE2010</t>
+  </si>
+  <si>
+    <t>11IE3048</t>
+  </si>
+  <si>
     <t>31IE2010</t>
   </si>
   <si>
     <t>12IE2011</t>
   </si>
   <si>
-    <t>21IE2010</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apellido1Sepa</t>
-  </si>
-  <si>
-    <t>12IE3028</t>
-  </si>
-  <si>
-    <t>22IE2010</t>
-  </si>
-  <si>
-    <t>Profesor5segundoN5_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>12IE2010</t>
-  </si>
-  <si>
-    <t>11IE3028</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoSamayoa</t>
-  </si>
-  <si>
-    <t>Receso</t>
+    <t>32IE2010</t>
+  </si>
+  <si>
+    <t>profesor1_apellidoapellido2</t>
   </si>
   <si>
     <t>12IE2013</t>
   </si>
   <si>
-    <t>11IE2010</t>
-  </si>
-  <si>
-    <t>Profesor4SegundoN_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>11IE2011</t>
-  </si>
-  <si>
-    <t>11IE3028, 11IE2011</t>
-  </si>
-  <si>
-    <t>31IE2010, 11IE2010</t>
-  </si>
-  <si>
-    <t>11IE2010, 12IE2013</t>
-  </si>
-  <si>
-    <t>11IE3048</t>
+    <t>31IE2009</t>
+  </si>
+  <si>
+    <t>32IE2010, 31IE2009</t>
+  </si>
+  <si>
+    <t>11IE3049</t>
+  </si>
+  <si>
+    <t>11IE2009</t>
   </si>
   <si>
     <t>11IE2008</t>
   </si>
   <si>
-    <t>12IE2009</t>
-  </si>
-  <si>
-    <t>21IE2009</t>
-  </si>
-  <si>
-    <t>22IE2009</t>
-  </si>
-  <si>
-    <t>21IE3028</t>
-  </si>
-  <si>
-    <t>22IE2009, 11IE2009</t>
-  </si>
-  <si>
-    <t>32IE2010</t>
-  </si>
-  <si>
-    <t>11IE2013</t>
-  </si>
-  <si>
-    <t>21IE2009, 32IE2010, 21IE3028</t>
-  </si>
-  <si>
-    <t>11IE2009</t>
-  </si>
-  <si>
-    <t>31IE2009</t>
-  </si>
-  <si>
-    <t>11IE3049</t>
-  </si>
-  <si>
-    <t>32IE2010, 11IE3049</t>
+    <t>11IE2008, 11IE2009</t>
   </si>
 </sst>
 </file>
@@ -721,22 +727,18 @@
       <c s="14" r="C5" t="n">
         <v>0.3229166666666667</v>
       </c>
-      <c s="21" r="D5" t="s">
+      <c s="21" r="D5" t="s"/>
+      <c s="21" r="E5" t="s"/>
+      <c s="21" r="F5" t="s">
         <v>12</v>
       </c>
-      <c s="21" r="E5" t="s"/>
-      <c s="21" r="F5" t="s"/>
-      <c s="21" r="G5" t="s">
+      <c s="21" r="G5" t="s"/>
+      <c s="21" r="H5" t="s"/>
+      <c s="23" r="I5" t="s">
         <v>13</v>
       </c>
-      <c s="21" r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c s="23" r="I5" t="s">
+      <c s="24" r="J5" t="s">
         <v>14</v>
-      </c>
-      <c s="24" r="J5" t="s">
-        <v>15</v>
       </c>
       <c s="23" r="K5" t="s"/>
       <c s="24" r="L5" t="s"/>
@@ -751,18 +753,18 @@
       <c s="14" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="21" r="D6" t="s"/>
+      <c s="21" r="D6" t="s">
+        <v>15</v>
+      </c>
       <c s="21" r="E6" t="s"/>
       <c s="21" r="F6" t="s"/>
-      <c s="21" r="G6" t="s">
-        <v>16</v>
-      </c>
+      <c s="21" r="G6" t="s"/>
       <c s="21" r="H6" t="s"/>
       <c s="23" r="I6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c s="24" r="J6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c s="23" r="K6" t="s"/>
       <c s="24" r="L6" t="s"/>
@@ -778,17 +780,19 @@
         <v>0.3923611111111111</v>
       </c>
       <c s="21" r="D7" t="s"/>
-      <c s="21" r="E7" t="s"/>
-      <c s="21" r="F7" t="s"/>
+      <c s="21" r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c s="21" r="F7" t="s">
+        <v>12</v>
+      </c>
       <c s="21" r="G7" t="s"/>
-      <c s="21" r="H7" t="s">
-        <v>17</v>
-      </c>
+      <c s="21" r="H7" t="s"/>
       <c s="23" r="I7" t="s">
         <v>16</v>
       </c>
       <c s="24" r="J7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c s="23" r="K7" t="s"/>
       <c s="24" r="L7" t="s"/>
@@ -805,25 +809,23 @@
       </c>
       <c s="21" r="D8" t="s"/>
       <c s="21" r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c s="21" r="F8" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c s="21" r="F8" t="s"/>
       <c s="21" r="G8" t="s"/>
       <c s="21" r="H8" t="s"/>
       <c s="23" r="I8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c s="24" r="J8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c s="23" r="K8" t="s"/>
       <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -837,10 +839,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="21" r="H9" t="s"/>
       <c s="23" r="I9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c s="24" r="J9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="23" r="K9" t="s"/>
       <c s="24" r="L9" t="s"/>
@@ -856,19 +858,17 @@
         <v>0.4756944444444444</v>
       </c>
       <c s="21" r="D10" t="s"/>
-      <c s="21" r="E10" t="s"/>
-      <c s="21" r="F10" t="s">
-        <v>20</v>
-      </c>
+      <c s="21" r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c s="21" r="F10" t="s"/>
       <c s="21" r="G10" t="s"/>
-      <c s="21" r="H10" t="s">
-        <v>23</v>
-      </c>
+      <c s="21" r="H10" t="s"/>
       <c s="23" r="I10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c s="24" r="J10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c s="23" r="K10" t="s"/>
       <c s="24" r="L10" t="s"/>
@@ -884,17 +884,17 @@
         <v>0.5104166666666666</v>
       </c>
       <c s="21" r="D11" t="s"/>
-      <c s="21" r="E11" t="s"/>
+      <c s="21" r="E11" t="s">
+        <v>22</v>
+      </c>
       <c s="21" r="F11" t="s"/>
-      <c s="21" r="G11" t="s">
-        <v>19</v>
-      </c>
+      <c s="21" r="G11" t="s"/>
       <c s="21" r="H11" t="s"/>
       <c s="23" r="I11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c s="24" r="J11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c s="23" r="K11" t="s"/>
       <c s="24" r="L11" t="s"/>
@@ -912,15 +912,13 @@
       <c s="21" r="D12" t="s"/>
       <c s="21" r="E12" t="s"/>
       <c s="21" r="F12" t="s"/>
-      <c s="21" r="G12" t="s">
-        <v>14</v>
-      </c>
+      <c s="21" r="G12" t="s"/>
       <c s="21" r="H12" t="s"/>
       <c s="23" r="I12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c s="24" r="J12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c s="23" r="K12" t="s"/>
       <c s="24" r="L12" t="s"/>
@@ -935,17 +933,13 @@
       <c s="14" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="20" r="D13" t="s">
-        <v>27</v>
-      </c>
+      <c s="21" r="D13" t="s"/>
       <c s="21" r="E13" t="s"/>
-      <c s="21" r="F13" t="s">
-        <v>12</v>
-      </c>
+      <c s="21" r="F13" t="s"/>
       <c s="21" r="G13" t="s"/>
       <c s="21" r="H13" t="s"/>
       <c s="23" r="I13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c s="24" r="J13" t="s">
         <v>21</v>
@@ -963,18 +957,24 @@
       <c s="14" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="21" r="D14" t="s"/>
-      <c s="21" r="E14" t="s"/>
+      <c s="21" r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c s="21" r="E14" t="s">
+        <v>25</v>
+      </c>
       <c s="21" r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c s="21" r="G14" t="s"/>
+        <v>26</v>
+      </c>
+      <c s="21" r="G14" t="s">
+        <v>24</v>
+      </c>
       <c s="21" r="H14" t="s"/>
       <c s="23" r="I14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c s="24" r="J14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c s="23" r="K14" t="s"/>
       <c s="24" r="L14" t="s"/>
@@ -989,14 +989,16 @@
       <c s="14" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="21" r="D15" t="s"/>
-      <c s="21" r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c s="21" r="F15" t="s"/>
-      <c s="21" r="G15" t="s">
-        <v>24</v>
-      </c>
+      <c s="21" r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c s="20" r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c s="20" r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c s="21" r="G15" t="s"/>
       <c s="21" r="H15" t="s"/>
       <c s="23" r="I15" t="s"/>
       <c s="24" r="J15" t="s"/>
@@ -1014,9 +1016,15 @@
         <v>0.6840277777777778</v>
       </c>
       <c s="21" r="D16" t="s"/>
-      <c s="21" r="E16" t="s"/>
-      <c s="21" r="F16" t="s"/>
-      <c s="21" r="G16" t="s"/>
+      <c s="20" r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c s="21" r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c s="21" r="G16" t="s">
+        <v>16</v>
+      </c>
       <c s="21" r="H16" t="s"/>
       <c s="23" r="I16" t="s"/>
       <c s="24" r="J16" t="s"/>
@@ -1033,14 +1041,14 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="21" r="D17" t="s"/>
+      <c s="21" r="D17" t="s">
+        <v>24</v>
+      </c>
       <c s="21" r="E17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c s="21" r="F17" t="s"/>
-      <c s="21" r="G17" t="s">
-        <v>13</v>
-      </c>
+      <c s="21" r="G17" t="s"/>
       <c s="21" r="H17" t="s"/>
       <c s="23" r="I17" t="s"/>
       <c s="24" r="J17" t="s"/>
@@ -1059,9 +1067,11 @@
       </c>
       <c s="21" r="D18" t="s"/>
       <c s="21" r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c s="21" r="F18" t="s">
         <v>26</v>
       </c>
-      <c s="21" r="F18" t="s"/>
       <c s="21" r="G18" t="s"/>
       <c s="21" r="H18" t="s"/>
       <c s="23" r="I18" t="s"/>
@@ -1081,13 +1091,11 @@
       </c>
       <c s="21" r="D19" t="s"/>
       <c s="20" r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c s="21" r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c s="21" r="F19" t="s"/>
+      <c s="21" r="G19" t="s">
         <v>16</v>
-      </c>
-      <c s="21" r="G19" t="s">
-        <v>14</v>
       </c>
       <c s="21" r="H19" t="s"/>
       <c s="23" r="I19" t="s"/>
@@ -1105,17 +1113,11 @@
       <c s="14" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="21" r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c s="21" r="E20" t="s">
-        <v>17</v>
-      </c>
+      <c s="21" r="D20" t="s"/>
+      <c s="21" r="E20" t="s"/>
       <c s="21" r="F20" t="s"/>
       <c s="21" r="G20" t="s"/>
-      <c s="21" r="H20" t="s">
-        <v>26</v>
-      </c>
+      <c s="21" r="H20" t="s"/>
       <c s="23" r="I20" t="s"/>
       <c s="24" r="J20" t="s"/>
       <c s="23" r="K20" t="s"/>
@@ -1132,9 +1134,13 @@
         <v>0.8576388888888888</v>
       </c>
       <c s="21" r="D21" t="s"/>
-      <c s="21" r="E21" t="s"/>
+      <c s="21" r="E21" t="s">
+        <v>18</v>
+      </c>
       <c s="21" r="F21" t="s"/>
-      <c s="21" r="G21" t="s"/>
+      <c s="21" r="G21" t="s">
+        <v>16</v>
+      </c>
       <c s="21" r="H21" t="s"/>
       <c s="23" r="I21" t="s"/>
       <c s="24" r="J21" t="s"/>
@@ -1152,12 +1158,8 @@
         <v>0.8854166666666666</v>
       </c>
       <c s="21" r="D22" t="s"/>
-      <c s="20" r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c s="21" r="F22" t="s">
-        <v>20</v>
-      </c>
+      <c s="21" r="E22" t="s"/>
+      <c s="21" r="F22" t="s"/>
       <c s="21" r="G22" t="s"/>
       <c s="21" r="H22" t="s"/>
       <c s="23" r="I22" t="s"/>
@@ -1264,21 +1266,17 @@
         <v>0.3229166666666667</v>
       </c>
       <c s="21" r="D5" t="s"/>
-      <c s="21" r="E5" t="s"/>
-      <c s="21" r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c s="21" r="G5" t="s">
+      <c s="21" r="E5" t="s">
         <v>31</v>
       </c>
-      <c s="21" r="H5" t="s">
+      <c s="21" r="F5" t="s"/>
+      <c s="21" r="G5" t="s"/>
+      <c s="21" r="H5" t="s"/>
+      <c s="23" r="I5" t="s">
         <v>32</v>
       </c>
-      <c s="23" r="I5" t="s">
-        <v>33</v>
-      </c>
       <c s="24" r="J5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c s="23" r="K5" t="s"/>
       <c s="24" r="L5" t="s"/>
@@ -1293,20 +1291,18 @@
       <c s="14" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="21" r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c s="21" r="E6" t="s"/>
+      <c s="21" r="D6" t="s"/>
+      <c s="20" r="E6" t="s">
+        <v>33</v>
+      </c>
       <c s="21" r="F6" t="s"/>
       <c s="21" r="G6" t="s"/>
-      <c s="21" r="H6" t="s">
-        <v>35</v>
-      </c>
+      <c s="21" r="H6" t="s"/>
       <c s="23" r="I6" t="s">
         <v>34</v>
       </c>
       <c s="24" r="J6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c s="23" r="K6" t="s"/>
       <c s="24" r="L6" t="s"/>
@@ -1323,18 +1319,14 @@
       </c>
       <c s="21" r="D7" t="s"/>
       <c s="21" r="E7" t="s"/>
-      <c s="21" r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c s="20" r="G7" t="s">
-        <v>36</v>
-      </c>
+      <c s="21" r="F7" t="s"/>
+      <c s="21" r="G7" t="s"/>
       <c s="21" r="H7" t="s"/>
       <c s="23" r="I7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c s="24" r="J7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c s="23" r="K7" t="s"/>
       <c s="24" r="L7" t="s"/>
@@ -1351,27 +1343,23 @@
       </c>
       <c s="21" r="D8" t="s"/>
       <c s="21" r="E8" t="s"/>
-      <c s="21" r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c s="21" r="G8" t="s">
-        <v>38</v>
-      </c>
+      <c s="21" r="F8" t="s"/>
+      <c s="21" r="G8" t="s"/>
       <c s="21" r="H8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c s="23" r="I8" t="s">
         <v>37</v>
       </c>
       <c s="24" r="J8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c s="23" r="K8" t="s"/>
       <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -1385,10 +1373,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="21" r="H9" t="s"/>
       <c s="23" r="I9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c s="24" r="J9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c s="23" r="K9" t="s"/>
       <c s="24" r="L9" t="s"/>
@@ -1403,20 +1391,20 @@
       <c s="14" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="21" r="D10" t="s"/>
-      <c s="21" r="E10" t="s"/>
-      <c s="20" r="F10" t="s">
+      <c s="21" r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c s="21" r="E10" t="s">
         <v>39</v>
       </c>
-      <c s="21" r="G10" t="s">
-        <v>40</v>
-      </c>
+      <c s="21" r="F10" t="s"/>
+      <c s="21" r="G10" t="s"/>
       <c s="21" r="H10" t="s"/>
       <c s="23" r="I10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c s="24" r="J10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c s="23" r="K10" t="s"/>
       <c s="24" r="L10" t="s"/>
@@ -1431,16 +1419,20 @@
       <c s="14" r="C11" t="n">
         <v>0.5104166666666666</v>
       </c>
-      <c s="21" r="D11" t="s"/>
+      <c s="21" r="D11" t="s">
+        <v>35</v>
+      </c>
       <c s="21" r="E11" t="s"/>
       <c s="21" r="F11" t="s"/>
       <c s="21" r="G11" t="s"/>
-      <c s="21" r="H11" t="s"/>
+      <c s="21" r="H11" t="s">
+        <v>36</v>
+      </c>
       <c s="23" r="I11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c s="24" r="J11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c s="23" r="K11" t="s"/>
       <c s="24" r="L11" t="s"/>
@@ -1455,22 +1447,18 @@
       <c s="14" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="21" r="D12" t="s">
-        <v>41</v>
-      </c>
+      <c s="21" r="D12" t="s"/>
       <c s="21" r="E12" t="s"/>
-      <c s="21" r="F12" t="s">
-        <v>38</v>
-      </c>
+      <c s="21" r="F12" t="s"/>
       <c s="21" r="G12" t="s"/>
-      <c s="20" r="H12" t="s">
-        <v>43</v>
+      <c s="21" r="H12" t="s">
+        <v>36</v>
       </c>
       <c s="23" r="I12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c s="24" r="J12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c s="23" r="K12" t="s"/>
       <c s="24" r="L12" t="s"/>
@@ -1485,22 +1473,20 @@
       <c s="14" r="C13" t="n">
         <v>0.5798611111111112</v>
       </c>
-      <c s="21" r="D13" t="s">
-        <v>30</v>
-      </c>
+      <c s="21" r="D13" t="s"/>
       <c s="21" r="E13" t="s"/>
-      <c s="21" r="F13" t="s">
-        <v>35</v>
+      <c s="20" r="F13" t="s">
+        <v>41</v>
       </c>
       <c s="21" r="G13" t="s"/>
       <c s="21" r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c s="23" r="I13" t="s">
         <v>42</v>
       </c>
-      <c s="23" r="I13" t="s">
-        <v>32</v>
-      </c>
       <c s="24" r="J13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c s="23" r="K13" t="s"/>
       <c s="24" r="L13" t="s"/>
@@ -1515,18 +1501,22 @@
       <c s="14" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="21" r="D14" t="s"/>
-      <c s="21" r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c s="21" r="F14" t="s"/>
+      <c s="21" r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c s="21" r="E14" t="s"/>
+      <c s="20" r="F14" t="s">
+        <v>41</v>
+      </c>
       <c s="21" r="G14" t="s"/>
-      <c s="21" r="H14" t="s"/>
+      <c s="21" r="H14" t="s">
+        <v>43</v>
+      </c>
       <c s="23" r="I14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c s="24" r="J14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c s="23" r="K14" t="s"/>
       <c s="24" r="L14" t="s"/>
@@ -1542,19 +1532,21 @@
         <v>0.6493055555555556</v>
       </c>
       <c s="21" r="D15" t="s"/>
-      <c s="21" r="E15" t="s">
+      <c s="21" r="E15" t="s"/>
+      <c s="21" r="F15" t="s">
         <v>40</v>
       </c>
-      <c s="21" r="F15" t="s"/>
       <c s="21" r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c s="21" r="H15" t="s"/>
+        <v>34</v>
+      </c>
+      <c s="20" r="H15" t="s">
+        <v>45</v>
+      </c>
       <c s="23" r="I15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c s="24" r="J15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c s="23" r="K15" t="s"/>
       <c s="24" r="L15" t="s"/>
@@ -1570,12 +1562,12 @@
         <v>0.6840277777777778</v>
       </c>
       <c s="21" r="D16" t="s"/>
-      <c s="21" r="E16" t="s">
-        <v>41</v>
-      </c>
+      <c s="21" r="E16" t="s"/>
       <c s="21" r="F16" t="s"/>
       <c s="21" r="G16" t="s"/>
-      <c s="21" r="H16" t="s"/>
+      <c s="21" r="H16" t="s">
+        <v>43</v>
+      </c>
       <c s="23" r="I16" t="s"/>
       <c s="24" r="J16" t="s"/>
       <c s="23" r="K16" t="s"/>
@@ -1592,14 +1584,18 @@
         <v>0.71875</v>
       </c>
       <c s="21" r="D17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c s="21" r="E17" t="s"/>
-      <c s="21" r="F17" t="s"/>
+      <c s="21" r="F17" t="s">
+        <v>37</v>
+      </c>
       <c s="21" r="G17" t="s">
-        <v>42</v>
-      </c>
-      <c s="21" r="H17" t="s"/>
+        <v>34</v>
+      </c>
+      <c s="21" r="H17" t="s">
+        <v>44</v>
+      </c>
       <c s="23" r="I17" t="s"/>
       <c s="24" r="J17" t="s"/>
       <c s="23" r="K17" t="s"/>
@@ -1615,13 +1611,15 @@
       <c s="14" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="21" r="D18" t="s">
-        <v>41</v>
-      </c>
+      <c s="21" r="D18" t="s"/>
       <c s="21" r="E18" t="s"/>
       <c s="21" r="F18" t="s"/>
-      <c s="21" r="G18" t="s"/>
-      <c s="21" r="H18" t="s"/>
+      <c s="21" r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c s="21" r="H18" t="s">
+        <v>44</v>
+      </c>
       <c s="23" r="I18" t="s"/>
       <c s="24" r="J18" t="s"/>
       <c s="23" r="K18" t="s"/>
@@ -1638,9 +1636,13 @@
         <v>0.7881944444444444</v>
       </c>
       <c s="21" r="D19" t="s"/>
-      <c s="21" r="E19" t="s"/>
+      <c s="21" r="E19" t="s">
+        <v>39</v>
+      </c>
       <c s="21" r="F19" t="s"/>
-      <c s="21" r="G19" t="s"/>
+      <c s="21" r="G19" t="s">
+        <v>42</v>
+      </c>
       <c s="21" r="H19" t="s"/>
       <c s="23" r="I19" t="s"/>
       <c s="24" r="J19" t="s"/>
@@ -1657,13 +1659,15 @@
       <c s="14" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="21" r="D20" t="s"/>
-      <c s="21" r="E20" t="s"/>
+      <c s="21" r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c s="21" r="E20" t="s">
+        <v>34</v>
+      </c>
       <c s="21" r="F20" t="s"/>
       <c s="21" r="G20" t="s"/>
-      <c s="21" r="H20" t="s">
-        <v>38</v>
-      </c>
+      <c s="21" r="H20" t="s"/>
       <c s="23" r="I20" t="s"/>
       <c s="24" r="J20" t="s"/>
       <c s="23" r="K20" t="s"/>
@@ -1680,7 +1684,9 @@
         <v>0.8576388888888888</v>
       </c>
       <c s="21" r="D21" t="s"/>
-      <c s="21" r="E21" t="s"/>
+      <c s="21" r="E21" t="s">
+        <v>39</v>
+      </c>
       <c s="21" r="F21" t="s"/>
       <c s="21" r="G21" t="s"/>
       <c s="21" r="H21" t="s"/>
@@ -1699,17 +1705,13 @@
       <c s="14" r="C22" t="n">
         <v>0.8854166666666666</v>
       </c>
-      <c s="21" r="D22" t="s">
-        <v>33</v>
-      </c>
+      <c s="21" r="D22" t="s"/>
       <c s="21" r="E22" t="s"/>
       <c s="21" r="F22" t="s"/>
       <c s="21" r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c s="21" r="H22" t="s">
-        <v>32</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c s="21" r="H22" t="s"/>
       <c s="23" r="I22" t="s"/>
       <c s="24" r="J22" t="s"/>
       <c s="23" r="K22" t="s"/>

--- a/Proyecto/data/horarioLaboratorios.xlsx
+++ b/Proyecto/data/horarioLaboratorios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Laboratorio</t>
   </si>
@@ -53,106 +53,112 @@
     <t>Viernes</t>
   </si>
   <si>
+    <t>31IE2009</t>
+  </si>
+  <si>
+    <t>21IE2010</t>
+  </si>
+  <si>
+    <t>profesor5_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>31IE2010</t>
+  </si>
+  <si>
+    <t>22IE2010</t>
+  </si>
+  <si>
+    <t>11IE3028</t>
+  </si>
+  <si>
+    <t>DiegoPablo_RegaladoSamayoa</t>
+  </si>
+  <si>
+    <t>12IE2011</t>
+  </si>
+  <si>
+    <t>21IE2009</t>
+  </si>
+  <si>
+    <t>MaurucioRodrigo_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>Receso</t>
+  </si>
+  <si>
+    <t>22IE2009</t>
+  </si>
+  <si>
+    <t>11IE2008</t>
+  </si>
+  <si>
+    <t>11IE2009</t>
+  </si>
+  <si>
+    <t>Profesor4_Apellido1Apellido2</t>
+  </si>
+  <si>
+    <t>21IE2009, 11IE2008, 11IE2009</t>
+  </si>
+  <si>
+    <t>22IE2009, 22IE2009</t>
+  </si>
+  <si>
+    <t>11IE3028, 11IE3028</t>
+  </si>
+  <si>
+    <t>12IE3028</t>
+  </si>
+  <si>
+    <t>11IE2011</t>
+  </si>
+  <si>
+    <t>11IE3048</t>
+  </si>
+  <si>
+    <t>32IE2010</t>
+  </si>
+  <si>
+    <t>11IE2010</t>
+  </si>
+  <si>
     <t>12IE2010</t>
   </si>
   <si>
-    <t>21IE2010</t>
-  </si>
-  <si>
-    <t>Profesor4_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>22IE2010</t>
-  </si>
-  <si>
-    <t>12IE3028</t>
-  </si>
-  <si>
-    <t>profesor5_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>11IE3028</t>
-  </si>
-  <si>
-    <t>Receso</t>
-  </si>
-  <si>
-    <t>22IE2009</t>
-  </si>
-  <si>
-    <t>MaurucioRodrigo_Apellido1Apellido2</t>
-  </si>
-  <si>
-    <t>11IE2011</t>
-  </si>
-  <si>
-    <t>DiegoPablo_RegaladoSamayoa</t>
+    <t>profesor1_apellidoapellido2</t>
   </si>
   <si>
     <t>11IE2013</t>
   </si>
   <si>
+    <t>12IE2013</t>
+  </si>
+  <si>
     <t>12IE2009</t>
   </si>
   <si>
+    <t>11IE3049</t>
+  </si>
+  <si>
+    <t>11IE3048, 11IE2013</t>
+  </si>
+  <si>
+    <t>11IE2010, 12IE2013, 11IE3049, 21IE3028</t>
+  </si>
+  <si>
+    <t>12IE2010, 11IE2013, 11IE2013</t>
+  </si>
+  <si>
+    <t>12IE2013, 12IE2013</t>
+  </si>
+  <si>
     <t>21IE3028</t>
   </si>
   <si>
-    <t>22IE2009, 12IE2009</t>
-  </si>
-  <si>
-    <t>12IE2010, 11IE2013</t>
-  </si>
-  <si>
-    <t>21IE2010, 11IE2011, 12IE2009</t>
-  </si>
-  <si>
-    <t>11IE3028, 11IE3028</t>
-  </si>
-  <si>
-    <t>11IE2010</t>
-  </si>
-  <si>
-    <t>21IE2009</t>
-  </si>
-  <si>
-    <t>31IE2010, 11IE2010</t>
-  </si>
-  <si>
-    <t>11IE3048</t>
-  </si>
-  <si>
-    <t>31IE2010</t>
-  </si>
-  <si>
-    <t>12IE2011</t>
-  </si>
-  <si>
-    <t>32IE2010</t>
-  </si>
-  <si>
-    <t>profesor1_apellidoapellido2</t>
-  </si>
-  <si>
-    <t>12IE2013</t>
-  </si>
-  <si>
-    <t>31IE2009</t>
-  </si>
-  <si>
-    <t>32IE2010, 31IE2009</t>
-  </si>
-  <si>
-    <t>11IE3049</t>
-  </si>
-  <si>
-    <t>11IE2009</t>
-  </si>
-  <si>
-    <t>11IE2008</t>
-  </si>
-  <si>
-    <t>11IE2008, 11IE2009</t>
+    <t>11IE2011, 12IE2009, 12IE2009</t>
+  </si>
+  <si>
+    <t>11IE2011, 11IE3049</t>
   </si>
 </sst>
 </file>
@@ -728,10 +734,10 @@
         <v>0.3229166666666667</v>
       </c>
       <c s="21" r="D5" t="s"/>
-      <c s="21" r="E5" t="s"/>
-      <c s="21" r="F5" t="s">
+      <c s="21" r="E5" t="s">
         <v>12</v>
       </c>
+      <c s="21" r="F5" t="s"/>
       <c s="21" r="G5" t="s"/>
       <c s="21" r="H5" t="s"/>
       <c s="23" r="I5" t="s">
@@ -753,15 +759,15 @@
       <c s="14" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="21" r="D6" t="s">
+      <c s="21" r="D6" t="s"/>
+      <c s="21" r="E6" t="s">
         <v>15</v>
       </c>
-      <c s="21" r="E6" t="s"/>
       <c s="21" r="F6" t="s"/>
       <c s="21" r="G6" t="s"/>
       <c s="21" r="H6" t="s"/>
       <c s="23" r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="24" r="J6" t="s">
         <v>14</v>
@@ -779,20 +785,20 @@
       <c s="14" r="C7" t="n">
         <v>0.3923611111111111</v>
       </c>
-      <c s="21" r="D7" t="s"/>
+      <c s="21" r="D7" t="s">
+        <v>16</v>
+      </c>
       <c s="21" r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c s="21" r="F7" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c s="21" r="F7" t="s"/>
       <c s="21" r="G7" t="s"/>
       <c s="21" r="H7" t="s"/>
       <c s="23" r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="24" r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="23" r="K7" t="s"/>
       <c s="24" r="L7" t="s"/>
@@ -808,24 +814,24 @@
         <v>0.4270833333333333</v>
       </c>
       <c s="21" r="D8" t="s"/>
-      <c s="21" r="E8" t="s">
-        <v>13</v>
-      </c>
+      <c s="21" r="E8" t="s"/>
       <c s="21" r="F8" t="s"/>
-      <c s="21" r="G8" t="s"/>
+      <c s="21" r="G8" t="s">
+        <v>19</v>
+      </c>
       <c s="21" r="H8" t="s"/>
       <c s="23" r="I8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c s="24" r="J8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c s="23" r="K8" t="s"/>
       <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -839,7 +845,7 @@
       <c s="21" r="G9" t="s"/>
       <c s="21" r="H9" t="s"/>
       <c s="23" r="I9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c s="24" r="J9" t="s">
         <v>21</v>
@@ -857,18 +863,18 @@
       <c s="14" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="21" r="D10" t="s"/>
-      <c s="21" r="E10" t="s">
-        <v>22</v>
-      </c>
+      <c s="21" r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c s="21" r="E10" t="s"/>
       <c s="21" r="F10" t="s"/>
       <c s="21" r="G10" t="s"/>
       <c s="21" r="H10" t="s"/>
       <c s="23" r="I10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c s="24" r="J10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c s="23" r="K10" t="s"/>
       <c s="24" r="L10" t="s"/>
@@ -885,16 +891,16 @@
       </c>
       <c s="21" r="D11" t="s"/>
       <c s="21" r="E11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c s="21" r="F11" t="s"/>
       <c s="21" r="G11" t="s"/>
       <c s="21" r="H11" t="s"/>
       <c s="23" r="I11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c s="24" r="J11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c s="23" r="K11" t="s"/>
       <c s="24" r="L11" t="s"/>
@@ -909,16 +915,20 @@
       <c s="14" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="21" r="D12" t="s"/>
+      <c s="21" r="D12" t="s">
+        <v>16</v>
+      </c>
       <c s="21" r="E12" t="s"/>
       <c s="21" r="F12" t="s"/>
-      <c s="21" r="G12" t="s"/>
+      <c s="21" r="G12" t="s">
+        <v>19</v>
+      </c>
       <c s="21" r="H12" t="s"/>
       <c s="23" r="I12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c s="24" r="J12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c s="23" r="K12" t="s"/>
       <c s="24" r="L12" t="s"/>
@@ -939,7 +949,7 @@
       <c s="21" r="G13" t="s"/>
       <c s="21" r="H13" t="s"/>
       <c s="23" r="I13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c s="24" r="J13" t="s">
         <v>21</v>
@@ -958,23 +968,21 @@
         <v>0.6145833333333334</v>
       </c>
       <c s="21" r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c s="21" r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c s="21" r="F14" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c s="21" r="F14" t="s"/>
       <c s="21" r="G14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c s="21" r="H14" t="s"/>
       <c s="23" r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c s="24" r="J14" t="s">
         <v>26</v>
-      </c>
-      <c s="24" r="J14" t="s">
-        <v>21</v>
       </c>
       <c s="23" r="K14" t="s"/>
       <c s="24" r="L14" t="s"/>
@@ -989,17 +997,17 @@
       <c s="14" r="C15" t="n">
         <v>0.6493055555555556</v>
       </c>
-      <c s="21" r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c s="20" r="E15" t="s">
+      <c s="21" r="D15" t="s"/>
+      <c s="21" r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c s="21" r="F15" t="s"/>
+      <c s="20" r="G15" t="s">
         <v>27</v>
       </c>
-      <c s="20" r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c s="21" r="G15" t="s"/>
-      <c s="21" r="H15" t="s"/>
+      <c s="21" r="H15" t="s">
+        <v>13</v>
+      </c>
       <c s="23" r="I15" t="s"/>
       <c s="24" r="J15" t="s"/>
       <c s="23" r="K15" t="s"/>
@@ -1017,13 +1025,11 @@
       </c>
       <c s="21" r="D16" t="s"/>
       <c s="20" r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c s="21" r="F16" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c s="21" r="F16" t="s"/>
       <c s="21" r="G16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c s="21" r="H16" t="s"/>
       <c s="23" r="I16" t="s"/>
@@ -1041,14 +1047,14 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="21" r="D17" t="s">
-        <v>24</v>
-      </c>
+      <c s="21" r="D17" t="s"/>
       <c s="21" r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c s="21" r="F17" t="s"/>
+      <c s="21" r="G17" t="s">
         <v>20</v>
       </c>
-      <c s="21" r="F17" t="s"/>
-      <c s="21" r="G17" t="s"/>
       <c s="21" r="H17" t="s"/>
       <c s="23" r="I17" t="s"/>
       <c s="24" r="J17" t="s"/>
@@ -1065,13 +1071,13 @@
       <c s="14" r="C18" t="n">
         <v>0.7534722222222222</v>
       </c>
-      <c s="21" r="D18" t="s"/>
+      <c s="21" r="D18" t="s">
+        <v>24</v>
+      </c>
       <c s="21" r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c s="21" r="F18" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c s="21" r="F18" t="s"/>
       <c s="21" r="G18" t="s"/>
       <c s="21" r="H18" t="s"/>
       <c s="23" r="I18" t="s"/>
@@ -1090,14 +1096,14 @@
         <v>0.7881944444444444</v>
       </c>
       <c s="21" r="D19" t="s"/>
-      <c s="20" r="E19" t="s">
-        <v>30</v>
+      <c s="21" r="E19" t="s">
+        <v>17</v>
       </c>
       <c s="21" r="F19" t="s"/>
-      <c s="21" r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c s="21" r="H19" t="s"/>
+      <c s="21" r="G19" t="s"/>
+      <c s="21" r="H19" t="s">
+        <v>24</v>
+      </c>
       <c s="23" r="I19" t="s"/>
       <c s="24" r="J19" t="s"/>
       <c s="23" r="K19" t="s"/>
@@ -1116,7 +1122,9 @@
       <c s="21" r="D20" t="s"/>
       <c s="21" r="E20" t="s"/>
       <c s="21" r="F20" t="s"/>
-      <c s="21" r="G20" t="s"/>
+      <c s="21" r="G20" t="s">
+        <v>25</v>
+      </c>
       <c s="21" r="H20" t="s"/>
       <c s="23" r="I20" t="s"/>
       <c s="24" r="J20" t="s"/>
@@ -1134,13 +1142,9 @@
         <v>0.8576388888888888</v>
       </c>
       <c s="21" r="D21" t="s"/>
-      <c s="21" r="E21" t="s">
-        <v>18</v>
-      </c>
+      <c s="21" r="E21" t="s"/>
       <c s="21" r="F21" t="s"/>
-      <c s="21" r="G21" t="s">
-        <v>16</v>
-      </c>
+      <c s="21" r="G21" t="s"/>
       <c s="21" r="H21" t="s"/>
       <c s="23" r="I21" t="s"/>
       <c s="24" r="J21" t="s"/>
@@ -1158,9 +1162,13 @@
         <v>0.8854166666666666</v>
       </c>
       <c s="21" r="D22" t="s"/>
-      <c s="21" r="E22" t="s"/>
+      <c s="20" r="E22" t="s">
+        <v>29</v>
+      </c>
       <c s="21" r="F22" t="s"/>
-      <c s="21" r="G22" t="s"/>
+      <c s="21" r="G22" t="s">
+        <v>25</v>
+      </c>
       <c s="21" r="H22" t="s"/>
       <c s="23" r="I22" t="s"/>
       <c s="24" r="J22" t="s"/>
@@ -1266,14 +1274,12 @@
         <v>0.3229166666666667</v>
       </c>
       <c s="21" r="D5" t="s"/>
-      <c s="21" r="E5" t="s">
-        <v>31</v>
-      </c>
+      <c s="21" r="E5" t="s"/>
       <c s="21" r="F5" t="s"/>
       <c s="21" r="G5" t="s"/>
       <c s="21" r="H5" t="s"/>
       <c s="23" r="I5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c s="24" r="J5" t="s">
         <v>21</v>
@@ -1291,18 +1297,18 @@
       <c s="14" r="C6" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c s="21" r="D6" t="s"/>
-      <c s="20" r="E6" t="s">
-        <v>33</v>
-      </c>
+      <c s="21" r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c s="21" r="E6" t="s"/>
       <c s="21" r="F6" t="s"/>
       <c s="21" r="G6" t="s"/>
       <c s="21" r="H6" t="s"/>
       <c s="23" r="I6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c s="24" r="J6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c s="23" r="K6" t="s"/>
       <c s="24" r="L6" t="s"/>
@@ -1323,10 +1329,10 @@
       <c s="21" r="G7" t="s"/>
       <c s="21" r="H7" t="s"/>
       <c s="23" r="I7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c s="24" r="J7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c s="23" r="K7" t="s"/>
       <c s="24" r="L7" t="s"/>
@@ -1345,21 +1351,19 @@
       <c s="21" r="E8" t="s"/>
       <c s="21" r="F8" t="s"/>
       <c s="21" r="G8" t="s"/>
-      <c s="21" r="H8" t="s">
-        <v>36</v>
-      </c>
+      <c s="21" r="H8" t="s"/>
       <c s="23" r="I8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c s="24" r="J8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c s="23" r="K8" t="s"/>
       <c s="24" r="L8" t="s"/>
     </row>
     <row r="9" spans="1:12">
       <c s="13" r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c s="14" r="B9" t="n">
         <v>0.4270833333333333</v>
@@ -1373,10 +1377,10 @@
       <c s="21" r="G9" t="s"/>
       <c s="21" r="H9" t="s"/>
       <c s="23" r="I9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c s="24" r="J9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c s="23" r="K9" t="s"/>
       <c s="24" r="L9" t="s"/>
@@ -1391,20 +1395,18 @@
       <c s="14" r="C10" t="n">
         <v>0.4756944444444444</v>
       </c>
-      <c s="21" r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c s="21" r="E10" t="s">
-        <v>39</v>
-      </c>
+      <c s="21" r="D10" t="s"/>
+      <c s="21" r="E10" t="s"/>
       <c s="21" r="F10" t="s"/>
-      <c s="21" r="G10" t="s"/>
+      <c s="21" r="G10" t="s">
+        <v>33</v>
+      </c>
       <c s="21" r="H10" t="s"/>
       <c s="23" r="I10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c s="24" r="J10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c s="23" r="K10" t="s"/>
       <c s="24" r="L10" t="s"/>
@@ -1425,14 +1427,12 @@
       <c s="21" r="E11" t="s"/>
       <c s="21" r="F11" t="s"/>
       <c s="21" r="G11" t="s"/>
-      <c s="21" r="H11" t="s">
+      <c s="21" r="H11" t="s"/>
+      <c s="23" r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c s="24" r="J11" t="s">
         <v>36</v>
-      </c>
-      <c s="23" r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c s="24" r="J11" t="s">
-        <v>17</v>
       </c>
       <c s="23" r="K11" t="s"/>
       <c s="24" r="L11" t="s"/>
@@ -1447,15 +1447,15 @@
       <c s="14" r="C12" t="n">
         <v>0.5451388888888888</v>
       </c>
-      <c s="21" r="D12" t="s"/>
+      <c s="21" r="D12" t="s">
+        <v>35</v>
+      </c>
       <c s="21" r="E12" t="s"/>
       <c s="21" r="F12" t="s"/>
       <c s="21" r="G12" t="s"/>
-      <c s="21" r="H12" t="s">
-        <v>36</v>
-      </c>
+      <c s="21" r="H12" t="s"/>
       <c s="23" r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c s="24" r="J12" t="s">
         <v>21</v>
@@ -1475,18 +1475,18 @@
       </c>
       <c s="21" r="D13" t="s"/>
       <c s="21" r="E13" t="s"/>
-      <c s="20" r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c s="21" r="G13" t="s"/>
+      <c s="21" r="F13" t="s"/>
+      <c s="21" r="G13" t="s">
+        <v>34</v>
+      </c>
       <c s="21" r="H13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c s="23" r="I13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c s="24" r="J13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c s="23" r="K13" t="s"/>
       <c s="24" r="L13" t="s"/>
@@ -1501,19 +1501,17 @@
       <c s="14" r="C14" t="n">
         <v>0.6145833333333334</v>
       </c>
-      <c s="21" r="D14" t="s">
-        <v>31</v>
-      </c>
+      <c s="21" r="D14" t="s"/>
       <c s="21" r="E14" t="s"/>
       <c s="20" r="F14" t="s">
         <v>41</v>
       </c>
       <c s="21" r="G14" t="s"/>
-      <c s="21" r="H14" t="s">
-        <v>43</v>
+      <c s="20" r="H14" t="s">
+        <v>42</v>
       </c>
       <c s="23" r="I14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c s="24" r="J14" t="s">
         <v>21</v>
@@ -1532,18 +1530,16 @@
         <v>0.6493055555555556</v>
       </c>
       <c s="21" r="D15" t="s"/>
-      <c s="21" r="E15" t="s"/>
-      <c s="21" r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c s="21" r="G15" t="s">
-        <v>34</v>
-      </c>
+      <c s="20" r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c s="21" r="F15" t="s"/>
+      <c s="21" r="G15" t="s"/>
       <c s="20" r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c s="23" r="I15" t="s">
         <v>45</v>
-      </c>
-      <c s="23" r="I15" t="s">
-        <v>43</v>
       </c>
       <c s="24" r="J15" t="s">
         <v>21</v>
@@ -1561,12 +1557,16 @@
       <c s="14" r="C16" t="n">
         <v>0.6840277777777778</v>
       </c>
-      <c s="21" r="D16" t="s"/>
-      <c s="21" r="E16" t="s"/>
+      <c s="20" r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c s="21" r="E16" t="s">
+        <v>33</v>
+      </c>
       <c s="21" r="F16" t="s"/>
       <c s="21" r="G16" t="s"/>
       <c s="21" r="H16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c s="23" r="I16" t="s"/>
       <c s="24" r="J16" t="s"/>
@@ -1583,19 +1583,13 @@
       <c s="14" r="C17" t="n">
         <v>0.71875</v>
       </c>
-      <c s="21" r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c s="21" r="E17" t="s"/>
-      <c s="21" r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c s="21" r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c s="21" r="H17" t="s">
-        <v>44</v>
-      </c>
+      <c s="21" r="D17" t="s"/>
+      <c s="21" r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c s="21" r="F17" t="s"/>
+      <c s="21" r="G17" t="s"/>
+      <c s="21" r="H17" t="s"/>
       <c s="23" r="I17" t="s"/>
       <c s="24" r="J17" t="s"/>
       <c s="23" r="K17" t="s"/>
@@ -1612,14 +1606,14 @@
         <v>0.7534722222222222</v>
       </c>
       <c s="21" r="D18" t="s"/>
-      <c s="21" r="E18" t="s"/>
-      <c s="21" r="F18" t="s"/>
-      <c s="21" r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c s="21" r="H18" t="s">
-        <v>44</v>
-      </c>
+      <c s="21" r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c s="21" r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c s="21" r="G18" t="s"/>
+      <c s="21" r="H18" t="s"/>
       <c s="23" r="I18" t="s"/>
       <c s="24" r="J18" t="s"/>
       <c s="23" r="K18" t="s"/>
@@ -1635,14 +1629,14 @@
       <c s="14" r="C19" t="n">
         <v>0.7881944444444444</v>
       </c>
-      <c s="21" r="D19" t="s"/>
+      <c s="20" r="D19" t="s">
+        <v>47</v>
+      </c>
       <c s="21" r="E19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c s="21" r="F19" t="s"/>
-      <c s="21" r="G19" t="s">
-        <v>42</v>
-      </c>
+      <c s="21" r="G19" t="s"/>
       <c s="21" r="H19" t="s"/>
       <c s="23" r="I19" t="s"/>
       <c s="24" r="J19" t="s"/>
@@ -1659,15 +1653,15 @@
       <c s="14" r="C20" t="n">
         <v>0.8229166666666666</v>
       </c>
-      <c s="21" r="D20" t="s">
-        <v>32</v>
-      </c>
+      <c s="21" r="D20" t="s"/>
       <c s="21" r="E20" t="s">
         <v>34</v>
       </c>
       <c s="21" r="F20" t="s"/>
       <c s="21" r="G20" t="s"/>
-      <c s="21" r="H20" t="s"/>
+      <c s="21" r="H20" t="s">
+        <v>45</v>
+      </c>
       <c s="23" r="I20" t="s"/>
       <c s="24" r="J20" t="s"/>
       <c s="23" r="K20" t="s"/>
@@ -1684,12 +1678,14 @@
         <v>0.8576388888888888</v>
       </c>
       <c s="21" r="D21" t="s"/>
-      <c s="21" r="E21" t="s">
-        <v>39</v>
-      </c>
+      <c s="21" r="E21" t="s"/>
       <c s="21" r="F21" t="s"/>
-      <c s="21" r="G21" t="s"/>
-      <c s="21" r="H21" t="s"/>
+      <c s="21" r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c s="21" r="H21" t="s">
+        <v>45</v>
+      </c>
       <c s="23" r="I21" t="s"/>
       <c s="24" r="J21" t="s"/>
       <c s="23" r="K21" t="s"/>
@@ -1707,10 +1703,10 @@
       </c>
       <c s="21" r="D22" t="s"/>
       <c s="21" r="E22" t="s"/>
-      <c s="21" r="F22" t="s"/>
-      <c s="21" r="G22" t="s">
-        <v>42</v>
-      </c>
+      <c s="21" r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c s="21" r="G22" t="s"/>
       <c s="21" r="H22" t="s"/>
       <c s="23" r="I22" t="s"/>
       <c s="24" r="J22" t="s"/>
